--- a/dataanalysis/data/predictions/1400/07311449_1453.xlsx
+++ b/dataanalysis/data/predictions/1400/07311449_1453.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="544" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="200">
   <si>
     <t>序号</t>
   </si>
@@ -118,6 +118,9 @@
     <t>重合</t>
   </si>
   <si>
+    <t>预测成功</t>
+  </si>
+  <si>
     <t>2025-07-31</t>
   </si>
   <si>
@@ -611,12 +614,6 @@
   </si>
   <si>
     <t>是</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>1</t>
   </si>
 </sst>
 </file>
@@ -974,13 +971,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AH103"/>
+  <dimension ref="A1:AI103"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:34">
+    <row r="1" spans="1:35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1083,19 +1080,22 @@
       <c r="AH1" s="1" t="s">
         <v>33</v>
       </c>
+      <c r="AI1" s="1" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="2" spans="1:34">
+    <row r="2" spans="1:35">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C2">
         <v>300006</v>
       </c>
       <c r="D2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E2">
         <v>4.84</v>
@@ -1113,7 +1113,7 @@
         <v>89665.89</v>
       </c>
       <c r="J2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="K2">
         <v>13</v>
@@ -1154,8 +1154,23 @@
       <c r="W2">
         <v>-0.31</v>
       </c>
+      <c r="X2">
+        <v>-5.81</v>
+      </c>
+      <c r="Y2">
+        <v>5.8</v>
+      </c>
+      <c r="Z2">
+        <v>3.02</v>
+      </c>
       <c r="AC2" t="s">
-        <v>197</v>
+        <v>198</v>
+      </c>
+      <c r="AD2">
+        <v>0</v>
+      </c>
+      <c r="AE2">
+        <v>0</v>
       </c>
       <c r="AF2">
         <v>0</v>
@@ -1163,22 +1178,25 @@
       <c r="AG2">
         <v>4.101853370666504</v>
       </c>
-      <c r="AH2" t="s">
-        <v>199</v>
+      <c r="AH2">
+        <v>0</v>
+      </c>
+      <c r="AI2">
+        <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:34">
+    <row r="3" spans="1:35">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C3">
         <v>300009</v>
       </c>
       <c r="D3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E3">
         <v>20.02</v>
@@ -1196,7 +1214,7 @@
         <v>382307.43</v>
       </c>
       <c r="J3" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -1237,8 +1255,23 @@
       <c r="W3">
         <v>2.71</v>
       </c>
+      <c r="X3">
+        <v>-1.73</v>
+      </c>
+      <c r="Y3">
+        <v>12.7</v>
+      </c>
+      <c r="Z3">
+        <v>4.87</v>
+      </c>
       <c r="AC3" t="s">
-        <v>198</v>
+        <v>199</v>
+      </c>
+      <c r="AD3">
+        <v>0</v>
+      </c>
+      <c r="AE3">
+        <v>0</v>
       </c>
       <c r="AF3">
         <v>1</v>
@@ -1246,22 +1279,25 @@
       <c r="AG3">
         <v>17.89719200134277</v>
       </c>
-      <c r="AH3" t="s">
-        <v>200</v>
+      <c r="AH3">
+        <v>1</v>
+      </c>
+      <c r="AI3">
+        <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:34">
+    <row r="4" spans="1:35">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C4">
         <v>300021</v>
       </c>
       <c r="D4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E4">
         <v>0.8100000000000001</v>
@@ -1279,7 +1315,7 @@
         <v>80532.50999999999</v>
       </c>
       <c r="J4" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="K4">
         <v>7</v>
@@ -1320,8 +1356,23 @@
       <c r="W4">
         <v>-0.02</v>
       </c>
+      <c r="X4">
+        <v>-9.34</v>
+      </c>
+      <c r="Y4">
+        <v>6.18</v>
+      </c>
+      <c r="Z4">
+        <v>-1.28</v>
+      </c>
       <c r="AC4" t="s">
-        <v>197</v>
+        <v>198</v>
+      </c>
+      <c r="AD4">
+        <v>0</v>
+      </c>
+      <c r="AE4">
+        <v>0</v>
       </c>
       <c r="AF4">
         <v>0</v>
@@ -1329,22 +1380,25 @@
       <c r="AG4">
         <v>2.929081916809082</v>
       </c>
-      <c r="AH4" t="s">
-        <v>199</v>
+      <c r="AH4">
+        <v>0</v>
+      </c>
+      <c r="AI4">
+        <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:34">
+    <row r="5" spans="1:35">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C5">
         <v>300066</v>
       </c>
       <c r="D5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E5">
         <v>-2.63</v>
@@ -1362,7 +1416,7 @@
         <v>38762.48</v>
       </c>
       <c r="J5" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="K5">
         <v>15</v>
@@ -1403,8 +1457,23 @@
       <c r="W5">
         <v>-1.03</v>
       </c>
+      <c r="X5">
+        <v>-2.35</v>
+      </c>
+      <c r="Y5">
+        <v>5.97</v>
+      </c>
+      <c r="Z5">
+        <v>0.67</v>
+      </c>
       <c r="AC5" t="s">
-        <v>197</v>
+        <v>198</v>
+      </c>
+      <c r="AD5">
+        <v>0</v>
+      </c>
+      <c r="AE5">
+        <v>0</v>
       </c>
       <c r="AF5">
         <v>0</v>
@@ -1412,22 +1481,25 @@
       <c r="AG5">
         <v>3.335776090621948</v>
       </c>
-      <c r="AH5" t="s">
-        <v>199</v>
+      <c r="AH5">
+        <v>0</v>
+      </c>
+      <c r="AI5">
+        <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:34">
+    <row r="6" spans="1:35">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C6">
         <v>300086</v>
       </c>
       <c r="D6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -1445,7 +1517,7 @@
         <v>109362.33</v>
       </c>
       <c r="J6" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="K6">
         <v>8</v>
@@ -1486,8 +1558,23 @@
       <c r="W6">
         <v>-0.06</v>
       </c>
+      <c r="X6">
+        <v>-7.15</v>
+      </c>
+      <c r="Y6">
+        <v>8.68</v>
+      </c>
+      <c r="Z6">
+        <v>2.36</v>
+      </c>
       <c r="AC6" t="s">
-        <v>197</v>
+        <v>198</v>
+      </c>
+      <c r="AD6">
+        <v>0</v>
+      </c>
+      <c r="AE6">
+        <v>0</v>
       </c>
       <c r="AF6">
         <v>0</v>
@@ -1495,22 +1582,25 @@
       <c r="AG6">
         <v>2.642814636230469</v>
       </c>
-      <c r="AH6" t="s">
-        <v>199</v>
+      <c r="AH6">
+        <v>0</v>
+      </c>
+      <c r="AI6">
+        <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:34">
+    <row r="7" spans="1:35">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C7">
         <v>300095</v>
       </c>
       <c r="D7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E7">
         <v>1.38</v>
@@ -1528,7 +1618,7 @@
         <v>53337.3</v>
       </c>
       <c r="J7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="K7">
         <v>8</v>
@@ -1569,8 +1659,23 @@
       <c r="W7">
         <v>1.31</v>
       </c>
+      <c r="X7">
+        <v>-3.98</v>
+      </c>
+      <c r="Y7">
+        <v>11.03</v>
+      </c>
+      <c r="Z7">
+        <v>0.27</v>
+      </c>
       <c r="AC7" t="s">
-        <v>197</v>
+        <v>198</v>
+      </c>
+      <c r="AD7">
+        <v>0</v>
+      </c>
+      <c r="AE7">
+        <v>0</v>
       </c>
       <c r="AF7">
         <v>0</v>
@@ -1578,22 +1683,25 @@
       <c r="AG7">
         <v>5.396688461303711</v>
       </c>
-      <c r="AH7" t="s">
-        <v>199</v>
+      <c r="AH7">
+        <v>0</v>
+      </c>
+      <c r="AI7">
+        <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:34">
+    <row r="8" spans="1:35">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C8">
         <v>300149</v>
       </c>
       <c r="D8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E8">
         <v>3.13</v>
@@ -1611,7 +1719,7 @@
         <v>179334.85</v>
       </c>
       <c r="J8" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -1652,8 +1760,23 @@
       <c r="W8">
         <v>0.77</v>
       </c>
+      <c r="X8">
+        <v>-6.6</v>
+      </c>
+      <c r="Y8">
+        <v>14.66</v>
+      </c>
+      <c r="Z8">
+        <v>3.39</v>
+      </c>
       <c r="AC8" t="s">
-        <v>198</v>
+        <v>199</v>
+      </c>
+      <c r="AD8">
+        <v>0</v>
+      </c>
+      <c r="AE8">
+        <v>0</v>
       </c>
       <c r="AF8">
         <v>1</v>
@@ -1661,22 +1784,25 @@
       <c r="AG8">
         <v>4.033242225646973</v>
       </c>
-      <c r="AH8" t="s">
-        <v>200</v>
+      <c r="AH8">
+        <v>1</v>
+      </c>
+      <c r="AI8">
+        <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:34">
+    <row r="9" spans="1:35">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C9">
         <v>300158</v>
       </c>
       <c r="D9" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E9">
         <v>15.97</v>
@@ -1694,7 +1820,7 @@
         <v>213211.24</v>
       </c>
       <c r="J9" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="K9">
         <v>7</v>
@@ -1735,8 +1861,23 @@
       <c r="W9">
         <v>0.55</v>
       </c>
+      <c r="X9">
+        <v>-5.45</v>
+      </c>
+      <c r="Y9">
+        <v>8.470000000000001</v>
+      </c>
+      <c r="Z9">
+        <v>-1.17</v>
+      </c>
       <c r="AC9" t="s">
-        <v>197</v>
+        <v>198</v>
+      </c>
+      <c r="AD9">
+        <v>0</v>
+      </c>
+      <c r="AE9">
+        <v>0</v>
       </c>
       <c r="AF9">
         <v>0</v>
@@ -1744,22 +1885,25 @@
       <c r="AG9">
         <v>4.379887580871582</v>
       </c>
-      <c r="AH9" t="s">
-        <v>199</v>
+      <c r="AH9">
+        <v>0</v>
+      </c>
+      <c r="AI9">
+        <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:34">
+    <row r="10" spans="1:35">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C10">
         <v>300188</v>
       </c>
       <c r="D10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E10">
         <v>-4.96</v>
@@ -1777,7 +1921,7 @@
         <v>118070.66</v>
       </c>
       <c r="J10" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1818,8 +1962,23 @@
       <c r="W10">
         <v>-1.02</v>
       </c>
+      <c r="X10">
+        <v>5.94</v>
+      </c>
+      <c r="Y10">
+        <v>18.27</v>
+      </c>
+      <c r="Z10">
+        <v>8.300000000000001</v>
+      </c>
       <c r="AC10" t="s">
-        <v>197</v>
+        <v>198</v>
+      </c>
+      <c r="AD10">
+        <v>1</v>
+      </c>
+      <c r="AE10">
+        <v>1</v>
       </c>
       <c r="AF10">
         <v>1</v>
@@ -1827,22 +1986,25 @@
       <c r="AG10">
         <v>3.153186559677124</v>
       </c>
-      <c r="AH10" t="s">
-        <v>199</v>
+      <c r="AH10">
+        <v>0</v>
+      </c>
+      <c r="AI10">
+        <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:34">
+    <row r="11" spans="1:35">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C11">
         <v>300199</v>
       </c>
       <c r="D11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E11">
         <v>6.02</v>
@@ -1860,7 +2022,7 @@
         <v>315587.87</v>
       </c>
       <c r="J11" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1901,8 +2063,23 @@
       <c r="W11">
         <v>0.07000000000000001</v>
       </c>
+      <c r="X11">
+        <v>-0.78</v>
+      </c>
+      <c r="Y11">
+        <v>21.84</v>
+      </c>
+      <c r="Z11">
+        <v>7.91</v>
+      </c>
       <c r="AC11" t="s">
-        <v>197</v>
+        <v>198</v>
+      </c>
+      <c r="AD11">
+        <v>0</v>
+      </c>
+      <c r="AE11">
+        <v>1</v>
       </c>
       <c r="AF11">
         <v>0</v>
@@ -1910,22 +2087,25 @@
       <c r="AG11">
         <v>4.363282203674316</v>
       </c>
-      <c r="AH11" t="s">
-        <v>199</v>
+      <c r="AH11">
+        <v>0</v>
+      </c>
+      <c r="AI11">
+        <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:34">
+    <row r="12" spans="1:35">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C12">
         <v>300224</v>
       </c>
       <c r="D12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E12">
         <v>-1.8</v>
@@ -1943,7 +2123,7 @@
         <v>50832.06</v>
       </c>
       <c r="J12" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="K12">
         <v>6</v>
@@ -1984,8 +2164,23 @@
       <c r="W12">
         <v>-0.3</v>
       </c>
+      <c r="X12">
+        <v>-2.14</v>
+      </c>
+      <c r="Y12">
+        <v>15.87</v>
+      </c>
+      <c r="Z12">
+        <v>0.13</v>
+      </c>
       <c r="AC12" t="s">
-        <v>197</v>
+        <v>198</v>
+      </c>
+      <c r="AD12">
+        <v>0</v>
+      </c>
+      <c r="AE12">
+        <v>0</v>
       </c>
       <c r="AF12">
         <v>0</v>
@@ -1993,22 +2188,25 @@
       <c r="AG12">
         <v>1.822033047676086</v>
       </c>
-      <c r="AH12" t="s">
-        <v>199</v>
+      <c r="AH12">
+        <v>0</v>
+      </c>
+      <c r="AI12">
+        <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:34">
+    <row r="13" spans="1:35">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C13">
         <v>300254</v>
       </c>
       <c r="D13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E13">
         <v>6.85</v>
@@ -2026,7 +2224,7 @@
         <v>90175.37</v>
       </c>
       <c r="J13" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="K13">
         <v>7</v>
@@ -2067,8 +2265,23 @@
       <c r="W13">
         <v>-1.01</v>
       </c>
+      <c r="X13">
+        <v>-3.38</v>
+      </c>
+      <c r="Y13">
+        <v>14.23</v>
+      </c>
+      <c r="Z13">
+        <v>4.86</v>
+      </c>
       <c r="AC13" t="s">
-        <v>197</v>
+        <v>198</v>
+      </c>
+      <c r="AD13">
+        <v>0</v>
+      </c>
+      <c r="AE13">
+        <v>0</v>
       </c>
       <c r="AF13">
         <v>0</v>
@@ -2076,22 +2289,25 @@
       <c r="AG13">
         <v>4.322676658630371</v>
       </c>
-      <c r="AH13" t="s">
-        <v>199</v>
+      <c r="AH13">
+        <v>0</v>
+      </c>
+      <c r="AI13">
+        <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:34">
+    <row r="14" spans="1:35">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C14">
         <v>300261</v>
       </c>
       <c r="D14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E14">
         <v>12.34</v>
@@ -2109,7 +2325,7 @@
         <v>117111.13</v>
       </c>
       <c r="J14" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K14">
         <v>1</v>
@@ -2150,8 +2366,23 @@
       <c r="W14">
         <v>1.8</v>
       </c>
+      <c r="X14">
+        <v>-1.82</v>
+      </c>
+      <c r="Y14">
+        <v>9.1</v>
+      </c>
+      <c r="Z14">
+        <v>3.06</v>
+      </c>
       <c r="AC14" t="s">
-        <v>198</v>
+        <v>199</v>
+      </c>
+      <c r="AD14">
+        <v>0</v>
+      </c>
+      <c r="AE14">
+        <v>0</v>
       </c>
       <c r="AF14">
         <v>0</v>
@@ -2159,22 +2390,25 @@
       <c r="AG14">
         <v>3.301754951477051</v>
       </c>
-      <c r="AH14" t="s">
-        <v>199</v>
+      <c r="AH14">
+        <v>0</v>
+      </c>
+      <c r="AI14">
+        <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:34">
+    <row r="15" spans="1:35">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C15">
         <v>300267</v>
       </c>
       <c r="D15" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E15">
         <v>3.8</v>
@@ -2192,7 +2426,7 @@
         <v>128460.51</v>
       </c>
       <c r="J15" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="K15">
         <v>5</v>
@@ -2233,8 +2467,23 @@
       <c r="W15">
         <v>0.21</v>
       </c>
+      <c r="X15">
+        <v>-9.59</v>
+      </c>
+      <c r="Y15">
+        <v>4.78</v>
+      </c>
+      <c r="Z15">
+        <v>3.02</v>
+      </c>
       <c r="AC15" t="s">
-        <v>197</v>
+        <v>198</v>
+      </c>
+      <c r="AD15">
+        <v>0</v>
+      </c>
+      <c r="AE15">
+        <v>0</v>
       </c>
       <c r="AF15">
         <v>0</v>
@@ -2242,22 +2491,25 @@
       <c r="AG15">
         <v>-0.7886834740638733</v>
       </c>
-      <c r="AH15" t="s">
-        <v>199</v>
+      <c r="AH15">
+        <v>0</v>
+      </c>
+      <c r="AI15">
+        <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:34">
+    <row r="16" spans="1:35">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C16">
         <v>300322</v>
       </c>
       <c r="D16" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E16">
         <v>4.83</v>
@@ -2275,7 +2527,7 @@
         <v>316101.53</v>
       </c>
       <c r="J16" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="K16">
         <v>4</v>
@@ -2316,8 +2568,23 @@
       <c r="W16">
         <v>0.46</v>
       </c>
+      <c r="X16">
+        <v>-3.76</v>
+      </c>
+      <c r="Y16">
+        <v>20.3</v>
+      </c>
+      <c r="Z16">
+        <v>1.6</v>
+      </c>
       <c r="AC16" t="s">
-        <v>197</v>
+        <v>198</v>
+      </c>
+      <c r="AD16">
+        <v>0</v>
+      </c>
+      <c r="AE16">
+        <v>0</v>
       </c>
       <c r="AF16">
         <v>1</v>
@@ -2325,22 +2592,25 @@
       <c r="AG16">
         <v>11.3160982131958</v>
       </c>
-      <c r="AH16" t="s">
-        <v>199</v>
+      <c r="AH16">
+        <v>0</v>
+      </c>
+      <c r="AI16">
+        <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:34">
+    <row r="17" spans="1:35">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C17">
         <v>300363</v>
       </c>
       <c r="D17" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E17">
         <v>-2.02</v>
@@ -2358,7 +2628,7 @@
         <v>100250.08</v>
       </c>
       <c r="J17" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="K17">
         <v>7</v>
@@ -2399,8 +2669,23 @@
       <c r="W17">
         <v>-1</v>
       </c>
+      <c r="X17">
+        <v>-1.13</v>
+      </c>
+      <c r="Y17">
+        <v>24.35</v>
+      </c>
+      <c r="Z17">
+        <v>2.31</v>
+      </c>
       <c r="AC17" t="s">
-        <v>197</v>
+        <v>198</v>
+      </c>
+      <c r="AD17">
+        <v>0</v>
+      </c>
+      <c r="AE17">
+        <v>0</v>
       </c>
       <c r="AF17">
         <v>0</v>
@@ -2408,22 +2693,25 @@
       <c r="AG17">
         <v>2.233251810073853</v>
       </c>
-      <c r="AH17" t="s">
-        <v>199</v>
+      <c r="AH17">
+        <v>0</v>
+      </c>
+      <c r="AI17">
+        <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:34">
+    <row r="18" spans="1:35">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C18">
         <v>300378</v>
       </c>
       <c r="D18" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E18">
         <v>7.37</v>
@@ -2441,7 +2729,7 @@
         <v>204130.92</v>
       </c>
       <c r="J18" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="K18">
         <v>5</v>
@@ -2482,8 +2770,23 @@
       <c r="W18">
         <v>0.93</v>
       </c>
+      <c r="X18">
+        <v>16.06</v>
+      </c>
+      <c r="Y18">
+        <v>63.06</v>
+      </c>
+      <c r="Z18">
+        <v>19.57</v>
+      </c>
       <c r="AC18" t="s">
-        <v>197</v>
+        <v>198</v>
+      </c>
+      <c r="AD18">
+        <v>0</v>
+      </c>
+      <c r="AE18">
+        <v>1</v>
       </c>
       <c r="AF18">
         <v>0</v>
@@ -2491,22 +2794,25 @@
       <c r="AG18">
         <v>1.689566135406494</v>
       </c>
-      <c r="AH18" t="s">
-        <v>199</v>
+      <c r="AH18">
+        <v>0</v>
+      </c>
+      <c r="AI18">
+        <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:34">
+    <row r="19" spans="1:35">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C19">
         <v>300404</v>
       </c>
       <c r="D19" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E19">
         <v>0.36</v>
@@ -2524,7 +2830,7 @@
         <v>45421.15</v>
       </c>
       <c r="J19" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="K19">
         <v>1</v>
@@ -2565,8 +2871,23 @@
       <c r="W19">
         <v>-0.2</v>
       </c>
+      <c r="X19">
+        <v>-2.39</v>
+      </c>
+      <c r="Y19">
+        <v>11.49</v>
+      </c>
+      <c r="Z19">
+        <v>2.22</v>
+      </c>
       <c r="AC19" t="s">
-        <v>197</v>
+        <v>198</v>
+      </c>
+      <c r="AD19">
+        <v>0</v>
+      </c>
+      <c r="AE19">
+        <v>0</v>
       </c>
       <c r="AF19">
         <v>0</v>
@@ -2574,22 +2895,25 @@
       <c r="AG19">
         <v>1.039397001266479</v>
       </c>
-      <c r="AH19" t="s">
-        <v>199</v>
+      <c r="AH19">
+        <v>0</v>
+      </c>
+      <c r="AI19">
+        <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:34">
+    <row r="20" spans="1:35">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C20">
         <v>300410</v>
       </c>
       <c r="D20" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -2607,7 +2931,7 @@
         <v>75432.2</v>
       </c>
       <c r="J20" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -2648,8 +2972,23 @@
       <c r="W20">
         <v>-0.6899999999999999</v>
       </c>
+      <c r="X20">
+        <v>4.12</v>
+      </c>
+      <c r="Y20">
+        <v>9.43</v>
+      </c>
+      <c r="Z20">
+        <v>10.81</v>
+      </c>
       <c r="AC20" t="s">
-        <v>197</v>
+        <v>198</v>
+      </c>
+      <c r="AD20">
+        <v>0</v>
+      </c>
+      <c r="AE20">
+        <v>1</v>
       </c>
       <c r="AF20">
         <v>0</v>
@@ -2657,22 +2996,25 @@
       <c r="AG20">
         <v>2.28305459022522</v>
       </c>
-      <c r="AH20" t="s">
-        <v>199</v>
+      <c r="AH20">
+        <v>0</v>
+      </c>
+      <c r="AI20">
+        <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:34">
+    <row r="21" spans="1:35">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C21">
         <v>300414</v>
       </c>
       <c r="D21" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E21">
         <v>-3.17</v>
@@ -2690,7 +3032,7 @@
         <v>83346.23</v>
       </c>
       <c r="J21" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="K21">
         <v>14</v>
@@ -2731,8 +3073,23 @@
       <c r="W21">
         <v>-0.5600000000000001</v>
       </c>
+      <c r="X21">
+        <v>3.95</v>
+      </c>
+      <c r="Y21">
+        <v>16.15</v>
+      </c>
+      <c r="Z21">
+        <v>7.81</v>
+      </c>
       <c r="AC21" t="s">
-        <v>197</v>
+        <v>198</v>
+      </c>
+      <c r="AD21">
+        <v>0</v>
+      </c>
+      <c r="AE21">
+        <v>1</v>
       </c>
       <c r="AF21">
         <v>0</v>
@@ -2740,22 +3097,25 @@
       <c r="AG21">
         <v>1.359533190727234</v>
       </c>
-      <c r="AH21" t="s">
-        <v>199</v>
+      <c r="AH21">
+        <v>0</v>
+      </c>
+      <c r="AI21">
+        <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:34">
+    <row r="22" spans="1:35">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C22">
         <v>300434</v>
       </c>
       <c r="D22" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E22">
         <v>-2.5</v>
@@ -2773,7 +3133,7 @@
         <v>55913.41</v>
       </c>
       <c r="J22" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="K22">
         <v>2</v>
@@ -2814,8 +3174,23 @@
       <c r="W22">
         <v>-0.34</v>
       </c>
+      <c r="X22">
+        <v>-0.97</v>
+      </c>
+      <c r="Y22">
+        <v>11.62</v>
+      </c>
+      <c r="Z22">
+        <v>2.74</v>
+      </c>
       <c r="AC22" t="s">
-        <v>197</v>
+        <v>198</v>
+      </c>
+      <c r="AD22">
+        <v>0</v>
+      </c>
+      <c r="AE22">
+        <v>0</v>
       </c>
       <c r="AF22">
         <v>0</v>
@@ -2823,22 +3198,25 @@
       <c r="AG22">
         <v>2.652282953262329</v>
       </c>
-      <c r="AH22" t="s">
-        <v>199</v>
+      <c r="AH22">
+        <v>0</v>
+      </c>
+      <c r="AI22">
+        <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:34">
+    <row r="23" spans="1:35">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C23">
         <v>300436</v>
       </c>
       <c r="D23" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E23">
         <v>16.03</v>
@@ -2856,7 +3234,7 @@
         <v>234013.49</v>
       </c>
       <c r="J23" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="K23">
         <v>21</v>
@@ -2897,8 +3275,23 @@
       <c r="W23">
         <v>-0.5</v>
       </c>
+      <c r="X23">
+        <v>-10.66</v>
+      </c>
+      <c r="Y23">
+        <v>115.13</v>
+      </c>
+      <c r="Z23">
+        <v>2.29</v>
+      </c>
       <c r="AC23" t="s">
-        <v>197</v>
+        <v>198</v>
+      </c>
+      <c r="AD23">
+        <v>0</v>
+      </c>
+      <c r="AE23">
+        <v>0</v>
       </c>
       <c r="AF23">
         <v>1</v>
@@ -2906,22 +3299,25 @@
       <c r="AG23">
         <v>3.475252151489258</v>
       </c>
-      <c r="AH23" t="s">
-        <v>199</v>
+      <c r="AH23">
+        <v>0</v>
+      </c>
+      <c r="AI23">
+        <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:34">
+    <row r="24" spans="1:35">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C24">
         <v>300452</v>
       </c>
       <c r="D24" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E24">
         <v>1.11</v>
@@ -2939,7 +3335,7 @@
         <v>36818.01</v>
       </c>
       <c r="J24" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="K24">
         <v>1</v>
@@ -2980,8 +3376,23 @@
       <c r="W24">
         <v>0.54</v>
       </c>
+      <c r="X24">
+        <v>-2.32</v>
+      </c>
+      <c r="Y24">
+        <v>15.2</v>
+      </c>
+      <c r="Z24">
+        <v>4.25</v>
+      </c>
       <c r="AC24" t="s">
-        <v>198</v>
+        <v>199</v>
+      </c>
+      <c r="AD24">
+        <v>0</v>
+      </c>
+      <c r="AE24">
+        <v>0</v>
       </c>
       <c r="AF24">
         <v>1</v>
@@ -2989,22 +3400,25 @@
       <c r="AG24">
         <v>3.757316827774048</v>
       </c>
-      <c r="AH24" t="s">
-        <v>200</v>
+      <c r="AH24">
+        <v>1</v>
+      </c>
+      <c r="AI24">
+        <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:34">
+    <row r="25" spans="1:35">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C25">
         <v>300467</v>
       </c>
       <c r="D25" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E25">
         <v>-0.74</v>
@@ -3022,7 +3436,7 @@
         <v>35054.67</v>
       </c>
       <c r="J25" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="K25">
         <v>1</v>
@@ -3063,8 +3477,23 @@
       <c r="W25">
         <v>-0.44</v>
       </c>
+      <c r="X25">
+        <v>-1.08</v>
+      </c>
+      <c r="Y25">
+        <v>24.1</v>
+      </c>
+      <c r="Z25">
+        <v>0.29</v>
+      </c>
       <c r="AC25" t="s">
-        <v>197</v>
+        <v>198</v>
+      </c>
+      <c r="AD25">
+        <v>0</v>
+      </c>
+      <c r="AE25">
+        <v>0</v>
       </c>
       <c r="AF25">
         <v>0</v>
@@ -3072,22 +3501,25 @@
       <c r="AG25">
         <v>2.057015895843506</v>
       </c>
-      <c r="AH25" t="s">
-        <v>199</v>
+      <c r="AH25">
+        <v>0</v>
+      </c>
+      <c r="AI25">
+        <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:34">
+    <row r="26" spans="1:35">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C26">
         <v>300469</v>
       </c>
       <c r="D26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E26">
         <v>0.68</v>
@@ -3105,7 +3537,7 @@
         <v>66511.52</v>
       </c>
       <c r="J26" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="K26">
         <v>13</v>
@@ -3146,8 +3578,23 @@
       <c r="W26">
         <v>-0.19</v>
       </c>
+      <c r="X26">
+        <v>-4.98</v>
+      </c>
+      <c r="Y26">
+        <v>47.93</v>
+      </c>
+      <c r="Z26">
+        <v>0.61</v>
+      </c>
       <c r="AC26" t="s">
-        <v>197</v>
+        <v>198</v>
+      </c>
+      <c r="AD26">
+        <v>0</v>
+      </c>
+      <c r="AE26">
+        <v>0</v>
       </c>
       <c r="AF26">
         <v>0</v>
@@ -3155,22 +3602,25 @@
       <c r="AG26">
         <v>2.715847969055176</v>
       </c>
-      <c r="AH26" t="s">
-        <v>199</v>
+      <c r="AH26">
+        <v>0</v>
+      </c>
+      <c r="AI26">
+        <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:34">
+    <row r="27" spans="1:35">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C27">
         <v>300502</v>
       </c>
       <c r="D27" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E27">
         <v>-0.45</v>
@@ -3188,7 +3638,7 @@
         <v>1406249.57</v>
       </c>
       <c r="J27" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="K27">
         <v>27</v>
@@ -3229,8 +3679,23 @@
       <c r="W27">
         <v>-0.26</v>
       </c>
+      <c r="X27">
+        <v>-3.22</v>
+      </c>
+      <c r="Y27">
+        <v>191.6</v>
+      </c>
+      <c r="Z27">
+        <v>1.11</v>
+      </c>
       <c r="AC27" t="s">
-        <v>197</v>
+        <v>198</v>
+      </c>
+      <c r="AD27">
+        <v>0</v>
+      </c>
+      <c r="AE27">
+        <v>0</v>
       </c>
       <c r="AF27">
         <v>1</v>
@@ -3238,22 +3703,25 @@
       <c r="AG27">
         <v>3.921857118606567</v>
       </c>
-      <c r="AH27" t="s">
-        <v>199</v>
+      <c r="AH27">
+        <v>0</v>
+      </c>
+      <c r="AI27">
+        <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:34">
+    <row r="28" spans="1:35">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C28">
         <v>300505</v>
       </c>
       <c r="D28" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E28">
         <v>0.05</v>
@@ -3271,7 +3739,7 @@
         <v>48701.43</v>
       </c>
       <c r="J28" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K28">
         <v>2</v>
@@ -3312,8 +3780,23 @@
       <c r="W28">
         <v>0.04</v>
       </c>
+      <c r="X28">
+        <v>3.9</v>
+      </c>
+      <c r="Y28">
+        <v>22.66</v>
+      </c>
+      <c r="Z28">
+        <v>9.050000000000001</v>
+      </c>
       <c r="AC28" t="s">
-        <v>197</v>
+        <v>198</v>
+      </c>
+      <c r="AD28">
+        <v>0</v>
+      </c>
+      <c r="AE28">
+        <v>1</v>
       </c>
       <c r="AF28">
         <v>0</v>
@@ -3321,22 +3804,25 @@
       <c r="AG28">
         <v>1.074234485626221</v>
       </c>
-      <c r="AH28" t="s">
-        <v>199</v>
+      <c r="AH28">
+        <v>0</v>
+      </c>
+      <c r="AI28">
+        <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:34">
+    <row r="29" spans="1:35">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C29">
         <v>300528</v>
       </c>
       <c r="D29" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E29">
         <v>-6.6</v>
@@ -3354,7 +3840,7 @@
         <v>204193.5</v>
       </c>
       <c r="J29" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="K29">
         <v>7</v>
@@ -3395,8 +3881,23 @@
       <c r="W29">
         <v>-1.59</v>
       </c>
+      <c r="X29">
+        <v>-8.050000000000001</v>
+      </c>
+      <c r="Y29">
+        <v>24.6</v>
+      </c>
+      <c r="Z29">
+        <v>4.02</v>
+      </c>
       <c r="AC29" t="s">
-        <v>197</v>
+        <v>198</v>
+      </c>
+      <c r="AD29">
+        <v>0</v>
+      </c>
+      <c r="AE29">
+        <v>0</v>
       </c>
       <c r="AF29">
         <v>0</v>
@@ -3404,22 +3905,25 @@
       <c r="AG29">
         <v>2.782952547073364</v>
       </c>
-      <c r="AH29" t="s">
-        <v>199</v>
+      <c r="AH29">
+        <v>0</v>
+      </c>
+      <c r="AI29">
+        <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:34">
+    <row r="30" spans="1:35">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C30">
         <v>300533</v>
       </c>
       <c r="D30" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E30">
         <v>-4.5</v>
@@ -3437,7 +3941,7 @@
         <v>70218.36</v>
       </c>
       <c r="J30" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="K30">
         <v>27</v>
@@ -3478,8 +3982,23 @@
       <c r="W30">
         <v>-1.27</v>
       </c>
+      <c r="X30">
+        <v>-3.54</v>
+      </c>
+      <c r="Y30">
+        <v>36.38</v>
+      </c>
+      <c r="Z30">
+        <v>0.25</v>
+      </c>
       <c r="AC30" t="s">
-        <v>197</v>
+        <v>198</v>
+      </c>
+      <c r="AD30">
+        <v>0</v>
+      </c>
+      <c r="AE30">
+        <v>0</v>
       </c>
       <c r="AF30">
         <v>1</v>
@@ -3487,22 +4006,25 @@
       <c r="AG30">
         <v>5.089038848876953</v>
       </c>
-      <c r="AH30" t="s">
-        <v>199</v>
+      <c r="AH30">
+        <v>0</v>
+      </c>
+      <c r="AI30">
+        <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:34">
+    <row r="31" spans="1:35">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C31">
         <v>300537</v>
       </c>
       <c r="D31" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E31">
         <v>-2.97</v>
@@ -3520,7 +4042,7 @@
         <v>38623.78</v>
       </c>
       <c r="J31" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -3561,8 +4083,23 @@
       <c r="W31">
         <v>-1.22</v>
       </c>
+      <c r="X31">
+        <v>-1.2</v>
+      </c>
+      <c r="Y31">
+        <v>25.94</v>
+      </c>
+      <c r="Z31">
+        <v>0.5</v>
+      </c>
       <c r="AC31" t="s">
-        <v>197</v>
+        <v>198</v>
+      </c>
+      <c r="AD31">
+        <v>0</v>
+      </c>
+      <c r="AE31">
+        <v>0</v>
       </c>
       <c r="AF31">
         <v>0</v>
@@ -3570,22 +4107,25 @@
       <c r="AG31">
         <v>4.284418106079102</v>
       </c>
-      <c r="AH31" t="s">
-        <v>199</v>
+      <c r="AH31">
+        <v>0</v>
+      </c>
+      <c r="AI31">
+        <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:34">
+    <row r="32" spans="1:35">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C32">
         <v>300539</v>
       </c>
       <c r="D32" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E32">
         <v>-4.52</v>
@@ -3603,7 +4143,7 @@
         <v>70326.99000000001</v>
       </c>
       <c r="J32" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="K32">
         <v>6</v>
@@ -3644,8 +4184,23 @@
       <c r="W32">
         <v>0.43</v>
       </c>
+      <c r="X32">
+        <v>-15</v>
+      </c>
+      <c r="Y32">
+        <v>27.46</v>
+      </c>
+      <c r="Z32">
+        <v>0.84</v>
+      </c>
       <c r="AC32" t="s">
-        <v>197</v>
+        <v>198</v>
+      </c>
+      <c r="AD32">
+        <v>0</v>
+      </c>
+      <c r="AE32">
+        <v>0</v>
       </c>
       <c r="AF32">
         <v>0</v>
@@ -3653,22 +4208,25 @@
       <c r="AG32">
         <v>4.004312515258789</v>
       </c>
-      <c r="AH32" t="s">
-        <v>199</v>
+      <c r="AH32">
+        <v>0</v>
+      </c>
+      <c r="AI32">
+        <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:34">
+    <row r="33" spans="1:35">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C33">
         <v>300548</v>
       </c>
       <c r="D33" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E33">
         <v>-5.13</v>
@@ -3686,7 +4244,7 @@
         <v>297999.28</v>
       </c>
       <c r="J33" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="K33">
         <v>13</v>
@@ -3727,8 +4285,23 @@
       <c r="W33">
         <v>-0.25</v>
       </c>
+      <c r="X33">
+        <v>-1.68</v>
+      </c>
+      <c r="Y33">
+        <v>87.40000000000001</v>
+      </c>
+      <c r="Z33">
+        <v>1.23</v>
+      </c>
       <c r="AC33" t="s">
-        <v>197</v>
+        <v>198</v>
+      </c>
+      <c r="AD33">
+        <v>0</v>
+      </c>
+      <c r="AE33">
+        <v>0</v>
       </c>
       <c r="AF33">
         <v>1</v>
@@ -3736,22 +4309,25 @@
       <c r="AG33">
         <v>11.43483352661133</v>
       </c>
-      <c r="AH33" t="s">
-        <v>199</v>
+      <c r="AH33">
+        <v>0</v>
+      </c>
+      <c r="AI33">
+        <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:34">
+    <row r="34" spans="1:35">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C34">
         <v>300581</v>
       </c>
       <c r="D34" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E34">
         <v>2.67</v>
@@ -3769,7 +4345,7 @@
         <v>149167.41</v>
       </c>
       <c r="J34" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -3810,8 +4386,23 @@
       <c r="W34">
         <v>0.14</v>
       </c>
+      <c r="X34">
+        <v>-5.79</v>
+      </c>
+      <c r="Y34">
+        <v>22.65</v>
+      </c>
+      <c r="Z34">
+        <v>-0.04</v>
+      </c>
       <c r="AC34" t="s">
-        <v>197</v>
+        <v>198</v>
+      </c>
+      <c r="AD34">
+        <v>0</v>
+      </c>
+      <c r="AE34">
+        <v>0</v>
       </c>
       <c r="AF34">
         <v>1</v>
@@ -3819,22 +4410,25 @@
       <c r="AG34">
         <v>2.693238496780396</v>
       </c>
-      <c r="AH34" t="s">
-        <v>199</v>
+      <c r="AH34">
+        <v>0</v>
+      </c>
+      <c r="AI34">
+        <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:34">
+    <row r="35" spans="1:35">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C35">
         <v>300588</v>
       </c>
       <c r="D35" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E35">
         <v>3.87</v>
@@ -3852,7 +4446,7 @@
         <v>62815.35</v>
       </c>
       <c r="J35" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="K35">
         <v>3</v>
@@ -3893,8 +4487,23 @@
       <c r="W35">
         <v>0.02</v>
       </c>
+      <c r="X35">
+        <v>-0.87</v>
+      </c>
+      <c r="Y35">
+        <v>20.7</v>
+      </c>
+      <c r="Z35">
+        <v>5.67</v>
+      </c>
       <c r="AC35" t="s">
-        <v>197</v>
+        <v>198</v>
+      </c>
+      <c r="AD35">
+        <v>0</v>
+      </c>
+      <c r="AE35">
+        <v>0</v>
       </c>
       <c r="AF35">
         <v>0</v>
@@ -3902,22 +4511,25 @@
       <c r="AG35">
         <v>7.173693656921387</v>
       </c>
-      <c r="AH35" t="s">
-        <v>199</v>
+      <c r="AH35">
+        <v>0</v>
+      </c>
+      <c r="AI35">
+        <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:34">
+    <row r="36" spans="1:35">
       <c r="A36">
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C36">
         <v>300591</v>
       </c>
       <c r="D36" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E36">
         <v>1.1</v>
@@ -3935,7 +4547,7 @@
         <v>98935.52</v>
       </c>
       <c r="J36" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -3976,8 +4588,23 @@
       <c r="W36">
         <v>1.01</v>
       </c>
+      <c r="X36">
+        <v>-6.11</v>
+      </c>
+      <c r="Y36">
+        <v>11.97</v>
+      </c>
+      <c r="Z36">
+        <v>0.08</v>
+      </c>
       <c r="AC36" t="s">
-        <v>198</v>
+        <v>199</v>
+      </c>
+      <c r="AD36">
+        <v>0</v>
+      </c>
+      <c r="AE36">
+        <v>0</v>
       </c>
       <c r="AF36">
         <v>0</v>
@@ -3985,22 +4612,25 @@
       <c r="AG36">
         <v>6.763374328613281</v>
       </c>
-      <c r="AH36" t="s">
-        <v>199</v>
+      <c r="AH36">
+        <v>0</v>
+      </c>
+      <c r="AI36">
+        <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:34">
+    <row r="37" spans="1:35">
       <c r="A37">
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C37">
         <v>300600</v>
       </c>
       <c r="D37" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E37">
         <v>-5.71</v>
@@ -4018,7 +4648,7 @@
         <v>92728.11</v>
       </c>
       <c r="J37" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="K37">
         <v>2</v>
@@ -4059,8 +4689,23 @@
       <c r="W37">
         <v>-2.31</v>
       </c>
+      <c r="X37">
+        <v>-4.12</v>
+      </c>
+      <c r="Y37">
+        <v>17.1</v>
+      </c>
+      <c r="Z37">
+        <v>0.59</v>
+      </c>
       <c r="AC37" t="s">
-        <v>197</v>
+        <v>198</v>
+      </c>
+      <c r="AD37">
+        <v>0</v>
+      </c>
+      <c r="AE37">
+        <v>0</v>
       </c>
       <c r="AF37">
         <v>0</v>
@@ -4068,22 +4713,25 @@
       <c r="AG37">
         <v>4.741488456726074</v>
       </c>
-      <c r="AH37" t="s">
-        <v>199</v>
+      <c r="AH37">
+        <v>0</v>
+      </c>
+      <c r="AI37">
+        <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:34">
+    <row r="38" spans="1:35">
       <c r="A38">
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C38">
         <v>300609</v>
       </c>
       <c r="D38" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E38">
         <v>3.39</v>
@@ -4101,7 +4749,7 @@
         <v>46882.97</v>
       </c>
       <c r="J38" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="K38">
         <v>2</v>
@@ -4142,8 +4790,23 @@
       <c r="W38">
         <v>0.13</v>
       </c>
+      <c r="X38">
+        <v>0.5</v>
+      </c>
+      <c r="Y38">
+        <v>42.52</v>
+      </c>
+      <c r="Z38">
+        <v>1.82</v>
+      </c>
       <c r="AC38" t="s">
-        <v>197</v>
+        <v>198</v>
+      </c>
+      <c r="AD38">
+        <v>0</v>
+      </c>
+      <c r="AE38">
+        <v>0</v>
       </c>
       <c r="AF38">
         <v>0</v>
@@ -4151,22 +4814,25 @@
       <c r="AG38">
         <v>3.33912205696106</v>
       </c>
-      <c r="AH38" t="s">
-        <v>199</v>
+      <c r="AH38">
+        <v>0</v>
+      </c>
+      <c r="AI38">
+        <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:34">
+    <row r="39" spans="1:35">
       <c r="A39">
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C39">
         <v>300631</v>
       </c>
       <c r="D39" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E39">
         <v>-1.86</v>
@@ -4184,7 +4850,7 @@
         <v>23895.49</v>
       </c>
       <c r="J39" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="K39">
         <v>14</v>
@@ -4225,8 +4891,23 @@
       <c r="W39">
         <v>-0.45</v>
       </c>
+      <c r="X39">
+        <v>1.08</v>
+      </c>
+      <c r="Y39">
+        <v>31.87</v>
+      </c>
+      <c r="Z39">
+        <v>3.88</v>
+      </c>
       <c r="AC39" t="s">
-        <v>197</v>
+        <v>198</v>
+      </c>
+      <c r="AD39">
+        <v>0</v>
+      </c>
+      <c r="AE39">
+        <v>0</v>
       </c>
       <c r="AF39">
         <v>0</v>
@@ -4234,22 +4915,25 @@
       <c r="AG39">
         <v>6.893686771392822</v>
       </c>
-      <c r="AH39" t="s">
-        <v>199</v>
+      <c r="AH39">
+        <v>0</v>
+      </c>
+      <c r="AI39">
+        <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:34">
+    <row r="40" spans="1:35">
       <c r="A40">
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C40">
         <v>300644</v>
       </c>
       <c r="D40" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E40">
         <v>-1.4</v>
@@ -4267,7 +4951,7 @@
         <v>27598.53</v>
       </c>
       <c r="J40" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="K40">
         <v>11</v>
@@ -4308,8 +4992,23 @@
       <c r="W40">
         <v>-0.7</v>
       </c>
+      <c r="X40">
+        <v>-1.91</v>
+      </c>
+      <c r="Y40">
+        <v>32.82</v>
+      </c>
+      <c r="Z40">
+        <v>1.33</v>
+      </c>
       <c r="AC40" t="s">
-        <v>197</v>
+        <v>198</v>
+      </c>
+      <c r="AD40">
+        <v>0</v>
+      </c>
+      <c r="AE40">
+        <v>0</v>
       </c>
       <c r="AF40">
         <v>0</v>
@@ -4317,22 +5016,25 @@
       <c r="AG40">
         <v>5.125904083251953</v>
       </c>
-      <c r="AH40" t="s">
-        <v>199</v>
+      <c r="AH40">
+        <v>0</v>
+      </c>
+      <c r="AI40">
+        <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:34">
+    <row r="41" spans="1:35">
       <c r="A41">
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C41">
         <v>300648</v>
       </c>
       <c r="D41" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E41">
         <v>2.38</v>
@@ -4350,7 +5052,7 @@
         <v>36927.89</v>
       </c>
       <c r="J41" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="K41">
         <v>1</v>
@@ -4391,8 +5093,23 @@
       <c r="W41">
         <v>0.29</v>
       </c>
+      <c r="X41">
+        <v>0.77</v>
+      </c>
+      <c r="Y41">
+        <v>45.3</v>
+      </c>
+      <c r="Z41">
+        <v>5.18</v>
+      </c>
       <c r="AC41" t="s">
-        <v>198</v>
+        <v>199</v>
+      </c>
+      <c r="AD41">
+        <v>0</v>
+      </c>
+      <c r="AE41">
+        <v>0</v>
       </c>
       <c r="AF41">
         <v>0</v>
@@ -4400,22 +5117,25 @@
       <c r="AG41">
         <v>3.745649576187134</v>
       </c>
-      <c r="AH41" t="s">
-        <v>199</v>
+      <c r="AH41">
+        <v>0</v>
+      </c>
+      <c r="AI41">
+        <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:34">
+    <row r="42" spans="1:35">
       <c r="A42">
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C42">
         <v>300683</v>
       </c>
       <c r="D42" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E42">
         <v>7.29</v>
@@ -4433,7 +5153,7 @@
         <v>97801.84</v>
       </c>
       <c r="J42" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="K42">
         <v>9</v>
@@ -4474,8 +5194,23 @@
       <c r="W42">
         <v>0.4</v>
       </c>
+      <c r="X42">
+        <v>5.73</v>
+      </c>
+      <c r="Y42">
+        <v>59.62</v>
+      </c>
+      <c r="Z42">
+        <v>6.9</v>
+      </c>
       <c r="AC42" t="s">
-        <v>197</v>
+        <v>198</v>
+      </c>
+      <c r="AD42">
+        <v>0</v>
+      </c>
+      <c r="AE42">
+        <v>0</v>
       </c>
       <c r="AF42">
         <v>0</v>
@@ -4483,22 +5218,25 @@
       <c r="AG42">
         <v>4.880926132202148</v>
       </c>
-      <c r="AH42" t="s">
-        <v>199</v>
+      <c r="AH42">
+        <v>0</v>
+      </c>
+      <c r="AI42">
+        <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:34">
+    <row r="43" spans="1:35">
       <c r="A43">
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C43">
         <v>300684</v>
       </c>
       <c r="D43" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E43">
         <v>0.47</v>
@@ -4516,7 +5254,7 @@
         <v>95817.57000000001</v>
       </c>
       <c r="J43" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="K43">
         <v>2</v>
@@ -4557,8 +5295,23 @@
       <c r="W43">
         <v>0.8100000000000001</v>
       </c>
+      <c r="X43">
+        <v>0.47</v>
+      </c>
+      <c r="Y43">
+        <v>31.88</v>
+      </c>
+      <c r="Z43">
+        <v>6.27</v>
+      </c>
       <c r="AC43" t="s">
-        <v>198</v>
+        <v>199</v>
+      </c>
+      <c r="AD43">
+        <v>0</v>
+      </c>
+      <c r="AE43">
+        <v>0</v>
       </c>
       <c r="AF43">
         <v>1</v>
@@ -4566,22 +5319,25 @@
       <c r="AG43">
         <v>0.2925020456314087</v>
       </c>
-      <c r="AH43" t="s">
-        <v>200</v>
+      <c r="AH43">
+        <v>1</v>
+      </c>
+      <c r="AI43">
+        <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:34">
+    <row r="44" spans="1:35">
       <c r="A44">
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C44">
         <v>300706</v>
       </c>
       <c r="D44" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E44">
         <v>-5.28</v>
@@ -4599,7 +5355,7 @@
         <v>124276.84</v>
       </c>
       <c r="J44" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="K44">
         <v>5</v>
@@ -4640,8 +5396,23 @@
       <c r="W44">
         <v>-1.75</v>
       </c>
+      <c r="X44">
+        <v>-8.52</v>
+      </c>
+      <c r="Y44">
+        <v>36.79</v>
+      </c>
+      <c r="Z44">
+        <v>0.63</v>
+      </c>
       <c r="AC44" t="s">
-        <v>197</v>
+        <v>198</v>
+      </c>
+      <c r="AD44">
+        <v>0</v>
+      </c>
+      <c r="AE44">
+        <v>0</v>
       </c>
       <c r="AF44">
         <v>0</v>
@@ -4649,22 +5420,25 @@
       <c r="AG44">
         <v>1.112197399139404</v>
       </c>
-      <c r="AH44" t="s">
-        <v>199</v>
+      <c r="AH44">
+        <v>0</v>
+      </c>
+      <c r="AI44">
+        <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:34">
+    <row r="45" spans="1:35">
       <c r="A45">
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C45">
         <v>300722</v>
       </c>
       <c r="D45" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E45">
         <v>-0.44</v>
@@ -4682,7 +5456,7 @@
         <v>56343.74</v>
       </c>
       <c r="J45" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="K45">
         <v>9</v>
@@ -4723,8 +5497,23 @@
       <c r="W45">
         <v>-0.22</v>
       </c>
+      <c r="X45">
+        <v>-5.33</v>
+      </c>
+      <c r="Y45">
+        <v>39.19</v>
+      </c>
+      <c r="Z45">
+        <v>0.72</v>
+      </c>
       <c r="AC45" t="s">
-        <v>197</v>
+        <v>198</v>
+      </c>
+      <c r="AD45">
+        <v>0</v>
+      </c>
+      <c r="AE45">
+        <v>0</v>
       </c>
       <c r="AF45">
         <v>0</v>
@@ -4732,22 +5521,25 @@
       <c r="AG45">
         <v>3.251112699508667</v>
       </c>
-      <c r="AH45" t="s">
-        <v>199</v>
+      <c r="AH45">
+        <v>0</v>
+      </c>
+      <c r="AI45">
+        <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:34">
+    <row r="46" spans="1:35">
       <c r="A46">
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C46">
         <v>300725</v>
       </c>
       <c r="D46" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E46">
         <v>-0.3</v>
@@ -4765,7 +5557,7 @@
         <v>132433.04</v>
       </c>
       <c r="J46" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="K46">
         <v>3</v>
@@ -4806,8 +5598,23 @@
       <c r="W46">
         <v>0.24</v>
       </c>
+      <c r="X46">
+        <v>-4.08</v>
+      </c>
+      <c r="Y46">
+        <v>50.4</v>
+      </c>
+      <c r="Z46">
+        <v>2.54</v>
+      </c>
       <c r="AC46" t="s">
-        <v>198</v>
+        <v>199</v>
+      </c>
+      <c r="AD46">
+        <v>0</v>
+      </c>
+      <c r="AE46">
+        <v>0</v>
       </c>
       <c r="AF46">
         <v>0</v>
@@ -4815,22 +5622,25 @@
       <c r="AG46">
         <v>4.923583984375</v>
       </c>
-      <c r="AH46" t="s">
-        <v>199</v>
+      <c r="AH46">
+        <v>0</v>
+      </c>
+      <c r="AI46">
+        <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:34">
+    <row r="47" spans="1:35">
       <c r="A47">
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C47">
         <v>300732</v>
       </c>
       <c r="D47" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E47">
         <v>8.85</v>
@@ -4848,7 +5658,7 @@
         <v>130989.39</v>
       </c>
       <c r="J47" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="K47">
         <v>2</v>
@@ -4889,8 +5699,23 @@
       <c r="W47">
         <v>-0.5600000000000001</v>
       </c>
+      <c r="X47">
+        <v>-5.76</v>
+      </c>
+      <c r="Y47">
+        <v>11.78</v>
+      </c>
+      <c r="Z47">
+        <v>1.9</v>
+      </c>
       <c r="AC47" t="s">
-        <v>197</v>
+        <v>198</v>
+      </c>
+      <c r="AD47">
+        <v>0</v>
+      </c>
+      <c r="AE47">
+        <v>0</v>
       </c>
       <c r="AF47">
         <v>0</v>
@@ -4898,22 +5723,25 @@
       <c r="AG47">
         <v>1.117831349372864</v>
       </c>
-      <c r="AH47" t="s">
-        <v>199</v>
+      <c r="AH47">
+        <v>0</v>
+      </c>
+      <c r="AI47">
+        <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:34">
+    <row r="48" spans="1:35">
       <c r="A48">
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C48">
         <v>300747</v>
       </c>
       <c r="D48" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E48">
         <v>-1.37</v>
@@ -4931,7 +5759,7 @@
         <v>91201.24000000001</v>
       </c>
       <c r="J48" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="K48">
         <v>11</v>
@@ -4972,8 +5800,23 @@
       <c r="W48">
         <v>-0.19</v>
       </c>
+      <c r="X48">
+        <v>0.1</v>
+      </c>
+      <c r="Y48">
+        <v>31.06</v>
+      </c>
+      <c r="Z48">
+        <v>5.07</v>
+      </c>
       <c r="AC48" t="s">
-        <v>197</v>
+        <v>198</v>
+      </c>
+      <c r="AD48">
+        <v>0</v>
+      </c>
+      <c r="AE48">
+        <v>0</v>
       </c>
       <c r="AF48">
         <v>0</v>
@@ -4981,22 +5824,25 @@
       <c r="AG48">
         <v>1.65288770198822</v>
       </c>
-      <c r="AH48" t="s">
-        <v>199</v>
+      <c r="AH48">
+        <v>0</v>
+      </c>
+      <c r="AI48">
+        <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:34">
+    <row r="49" spans="1:35">
       <c r="A49">
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C49">
         <v>300767</v>
       </c>
       <c r="D49" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E49">
         <v>-9.880000000000001</v>
@@ -5014,7 +5860,7 @@
         <v>52070.86</v>
       </c>
       <c r="J49" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="K49">
         <v>1</v>
@@ -5055,8 +5901,23 @@
       <c r="W49">
         <v>-1.51</v>
       </c>
+      <c r="X49">
+        <v>0.95</v>
+      </c>
+      <c r="Y49">
+        <v>14.05</v>
+      </c>
+      <c r="Z49">
+        <v>2.7</v>
+      </c>
       <c r="AC49" t="s">
-        <v>197</v>
+        <v>198</v>
+      </c>
+      <c r="AD49">
+        <v>0</v>
+      </c>
+      <c r="AE49">
+        <v>0</v>
       </c>
       <c r="AF49">
         <v>0</v>
@@ -5064,22 +5925,25 @@
       <c r="AG49">
         <v>2.712304353713989</v>
       </c>
-      <c r="AH49" t="s">
-        <v>199</v>
+      <c r="AH49">
+        <v>0</v>
+      </c>
+      <c r="AI49">
+        <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:34">
+    <row r="50" spans="1:35">
       <c r="A50">
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C50">
         <v>300803</v>
       </c>
       <c r="D50" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E50">
         <v>-3.6</v>
@@ -5097,7 +5961,7 @@
         <v>370716.11</v>
       </c>
       <c r="J50" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="K50">
         <v>25</v>
@@ -5138,8 +6002,23 @@
       <c r="W50">
         <v>-1.04</v>
       </c>
+      <c r="X50">
+        <v>-0.83</v>
+      </c>
+      <c r="Y50">
+        <v>90.26000000000001</v>
+      </c>
+      <c r="Z50">
+        <v>1.78</v>
+      </c>
       <c r="AC50" t="s">
-        <v>197</v>
+        <v>198</v>
+      </c>
+      <c r="AD50">
+        <v>0</v>
+      </c>
+      <c r="AE50">
+        <v>0</v>
       </c>
       <c r="AF50">
         <v>0</v>
@@ -5147,22 +6026,25 @@
       <c r="AG50">
         <v>2.645456314086914</v>
       </c>
-      <c r="AH50" t="s">
-        <v>199</v>
+      <c r="AH50">
+        <v>0</v>
+      </c>
+      <c r="AI50">
+        <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:34">
+    <row r="51" spans="1:35">
       <c r="A51">
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C51">
         <v>300835</v>
       </c>
       <c r="D51" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E51">
         <v>1.08</v>
@@ -5180,7 +6062,7 @@
         <v>63085.03</v>
       </c>
       <c r="J51" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="K51">
         <v>8</v>
@@ -5221,8 +6103,23 @@
       <c r="W51">
         <v>-0.36</v>
       </c>
+      <c r="X51">
+        <v>-2.42</v>
+      </c>
+      <c r="Y51">
+        <v>57.8</v>
+      </c>
+      <c r="Z51">
+        <v>-0.21</v>
+      </c>
       <c r="AC51" t="s">
-        <v>197</v>
+        <v>198</v>
+      </c>
+      <c r="AD51">
+        <v>0</v>
+      </c>
+      <c r="AE51">
+        <v>0</v>
       </c>
       <c r="AF51">
         <v>0</v>
@@ -5230,22 +6127,25 @@
       <c r="AG51">
         <v>2.920072317123413</v>
       </c>
-      <c r="AH51" t="s">
-        <v>199</v>
+      <c r="AH51">
+        <v>0</v>
+      </c>
+      <c r="AI51">
+        <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:34">
+    <row r="52" spans="1:35">
       <c r="A52">
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C52">
         <v>300841</v>
       </c>
       <c r="D52" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E52">
         <v>5.6</v>
@@ -5263,7 +6163,7 @@
         <v>83213.25999999999</v>
       </c>
       <c r="J52" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="K52">
         <v>1</v>
@@ -5304,8 +6204,23 @@
       <c r="W52">
         <v>0.34</v>
       </c>
+      <c r="X52">
+        <v>2.52</v>
+      </c>
+      <c r="Y52">
+        <v>82.08</v>
+      </c>
+      <c r="Z52">
+        <v>6.12</v>
+      </c>
       <c r="AC52" t="s">
-        <v>198</v>
+        <v>199</v>
+      </c>
+      <c r="AD52">
+        <v>0</v>
+      </c>
+      <c r="AE52">
+        <v>0</v>
       </c>
       <c r="AF52">
         <v>0</v>
@@ -5313,22 +6228,25 @@
       <c r="AG52">
         <v>3.446914911270142</v>
       </c>
-      <c r="AH52" t="s">
-        <v>199</v>
+      <c r="AH52">
+        <v>0</v>
+      </c>
+      <c r="AI52">
+        <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:34">
+    <row r="53" spans="1:35">
       <c r="A53">
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C53">
         <v>300869</v>
       </c>
       <c r="D53" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E53">
         <v>1.07</v>
@@ -5346,7 +6264,7 @@
         <v>80589.32000000001</v>
       </c>
       <c r="J53" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="K53">
         <v>4</v>
@@ -5387,8 +6305,23 @@
       <c r="W53">
         <v>-0.1</v>
       </c>
+      <c r="X53">
+        <v>-4.35</v>
+      </c>
+      <c r="Y53">
+        <v>20.5</v>
+      </c>
+      <c r="Z53">
+        <v>-0.97</v>
+      </c>
       <c r="AC53" t="s">
-        <v>197</v>
+        <v>198</v>
+      </c>
+      <c r="AD53">
+        <v>0</v>
+      </c>
+      <c r="AE53">
+        <v>0</v>
       </c>
       <c r="AF53">
         <v>1</v>
@@ -5396,22 +6329,25 @@
       <c r="AG53">
         <v>12.53075218200684</v>
       </c>
-      <c r="AH53" t="s">
-        <v>199</v>
+      <c r="AH53">
+        <v>0</v>
+      </c>
+      <c r="AI53">
+        <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:34">
+    <row r="54" spans="1:35">
       <c r="A54">
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C54">
         <v>300872</v>
       </c>
       <c r="D54" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E54">
         <v>-1.81</v>
@@ -5429,7 +6365,7 @@
         <v>103514.35</v>
       </c>
       <c r="J54" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="K54">
         <v>6</v>
@@ -5470,8 +6406,23 @@
       <c r="W54">
         <v>-0.68</v>
       </c>
+      <c r="X54">
+        <v>-4.1</v>
+      </c>
+      <c r="Y54">
+        <v>24.84</v>
+      </c>
+      <c r="Z54">
+        <v>-0.24</v>
+      </c>
       <c r="AC54" t="s">
-        <v>197</v>
+        <v>198</v>
+      </c>
+      <c r="AD54">
+        <v>0</v>
+      </c>
+      <c r="AE54">
+        <v>0</v>
       </c>
       <c r="AF54">
         <v>0</v>
@@ -5479,22 +6430,25 @@
       <c r="AG54">
         <v>5.30585765838623</v>
       </c>
-      <c r="AH54" t="s">
-        <v>199</v>
+      <c r="AH54">
+        <v>0</v>
+      </c>
+      <c r="AI54">
+        <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:34">
+    <row r="55" spans="1:35">
       <c r="A55">
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C55">
         <v>300877</v>
       </c>
       <c r="D55" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E55">
         <v>-0.88</v>
@@ -5512,7 +6466,7 @@
         <v>46590.75</v>
       </c>
       <c r="J55" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="K55">
         <v>5</v>
@@ -5553,8 +6507,23 @@
       <c r="W55">
         <v>0.5</v>
       </c>
+      <c r="X55">
+        <v>0.73</v>
+      </c>
+      <c r="Y55">
+        <v>32.77</v>
+      </c>
+      <c r="Z55">
+        <v>8.039999999999999</v>
+      </c>
       <c r="AC55" t="s">
-        <v>197</v>
+        <v>198</v>
+      </c>
+      <c r="AD55">
+        <v>1</v>
+      </c>
+      <c r="AE55">
+        <v>1</v>
       </c>
       <c r="AF55">
         <v>1</v>
@@ -5562,22 +6531,25 @@
       <c r="AG55">
         <v>5.716188430786133</v>
       </c>
-      <c r="AH55" t="s">
-        <v>199</v>
+      <c r="AH55">
+        <v>0</v>
+      </c>
+      <c r="AI55">
+        <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:34">
+    <row r="56" spans="1:35">
       <c r="A56">
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C56">
         <v>300885</v>
       </c>
       <c r="D56" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E56">
         <v>0.13</v>
@@ -5595,7 +6567,7 @@
         <v>109199.69</v>
       </c>
       <c r="J56" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="K56">
         <v>7</v>
@@ -5636,8 +6608,23 @@
       <c r="W56">
         <v>2.05</v>
       </c>
+      <c r="X56">
+        <v>-5.23</v>
+      </c>
+      <c r="Y56">
+        <v>23.12</v>
+      </c>
+      <c r="Z56">
+        <v>-1.11</v>
+      </c>
       <c r="AC56" t="s">
-        <v>198</v>
+        <v>199</v>
+      </c>
+      <c r="AD56">
+        <v>0</v>
+      </c>
+      <c r="AE56">
+        <v>0</v>
       </c>
       <c r="AF56">
         <v>0</v>
@@ -5645,22 +6632,25 @@
       <c r="AG56">
         <v>7.077398300170898</v>
       </c>
-      <c r="AH56" t="s">
-        <v>199</v>
+      <c r="AH56">
+        <v>0</v>
+      </c>
+      <c r="AI56">
+        <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:34">
+    <row r="57" spans="1:35">
       <c r="A57">
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C57">
         <v>300903</v>
       </c>
       <c r="D57" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E57">
         <v>-1.16</v>
@@ -5678,7 +6668,7 @@
         <v>73918.16</v>
       </c>
       <c r="J57" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="K57">
         <v>3</v>
@@ -5719,8 +6709,23 @@
       <c r="W57">
         <v>-0.14</v>
       </c>
+      <c r="X57">
+        <v>-2.35</v>
+      </c>
+      <c r="Y57">
+        <v>12.13</v>
+      </c>
+      <c r="Z57">
+        <v>1.93</v>
+      </c>
       <c r="AC57" t="s">
-        <v>197</v>
+        <v>198</v>
+      </c>
+      <c r="AD57">
+        <v>0</v>
+      </c>
+      <c r="AE57">
+        <v>0</v>
       </c>
       <c r="AF57">
         <v>0</v>
@@ -5728,22 +6733,25 @@
       <c r="AG57">
         <v>5.191757202148438</v>
       </c>
-      <c r="AH57" t="s">
-        <v>199</v>
+      <c r="AH57">
+        <v>0</v>
+      </c>
+      <c r="AI57">
+        <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:34">
+    <row r="58" spans="1:35">
       <c r="A58">
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C58">
         <v>300907</v>
       </c>
       <c r="D58" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E58">
         <v>1.15</v>
@@ -5761,7 +6769,7 @@
         <v>31128.71</v>
       </c>
       <c r="J58" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="K58">
         <v>2</v>
@@ -5802,8 +6810,23 @@
       <c r="W58">
         <v>0.44</v>
       </c>
+      <c r="X58">
+        <v>1.76</v>
+      </c>
+      <c r="Y58">
+        <v>35.09</v>
+      </c>
+      <c r="Z58">
+        <v>5.03</v>
+      </c>
       <c r="AC58" t="s">
-        <v>198</v>
+        <v>199</v>
+      </c>
+      <c r="AD58">
+        <v>0</v>
+      </c>
+      <c r="AE58">
+        <v>0</v>
       </c>
       <c r="AF58">
         <v>0</v>
@@ -5811,22 +6834,25 @@
       <c r="AG58">
         <v>3.076304197311401</v>
       </c>
-      <c r="AH58" t="s">
-        <v>199</v>
+      <c r="AH58">
+        <v>0</v>
+      </c>
+      <c r="AI58">
+        <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:34">
+    <row r="59" spans="1:35">
       <c r="A59">
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C59">
         <v>300987</v>
       </c>
       <c r="D59" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E59">
         <v>-1.97</v>
@@ -5844,7 +6870,7 @@
         <v>50080.68</v>
       </c>
       <c r="J59" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="K59">
         <v>2</v>
@@ -5885,8 +6911,23 @@
       <c r="W59">
         <v>-0.39</v>
       </c>
+      <c r="X59">
+        <v>-0.77</v>
+      </c>
+      <c r="Y59">
+        <v>22.2</v>
+      </c>
+      <c r="Z59">
+        <v>1.56</v>
+      </c>
       <c r="AC59" t="s">
-        <v>197</v>
+        <v>198</v>
+      </c>
+      <c r="AD59">
+        <v>0</v>
+      </c>
+      <c r="AE59">
+        <v>0</v>
       </c>
       <c r="AF59">
         <v>0</v>
@@ -5894,22 +6935,25 @@
       <c r="AG59">
         <v>1.090379595756531</v>
       </c>
-      <c r="AH59" t="s">
-        <v>199</v>
+      <c r="AH59">
+        <v>0</v>
+      </c>
+      <c r="AI59">
+        <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:34">
+    <row r="60" spans="1:35">
       <c r="A60">
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C60">
         <v>301005</v>
       </c>
       <c r="D60" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E60">
         <v>2.25</v>
@@ -5927,7 +6971,7 @@
         <v>84348.07000000001</v>
       </c>
       <c r="J60" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="K60">
         <v>1</v>
@@ -5968,8 +7012,23 @@
       <c r="W60">
         <v>0.47</v>
       </c>
+      <c r="X60">
+        <v>-5.48</v>
+      </c>
+      <c r="Y60">
+        <v>43.74</v>
+      </c>
+      <c r="Z60">
+        <v>-0.86</v>
+      </c>
       <c r="AC60" t="s">
-        <v>198</v>
+        <v>199</v>
+      </c>
+      <c r="AD60">
+        <v>0</v>
+      </c>
+      <c r="AE60">
+        <v>0</v>
       </c>
       <c r="AF60">
         <v>1</v>
@@ -5977,22 +7036,25 @@
       <c r="AG60">
         <v>5.081424236297607</v>
       </c>
-      <c r="AH60" t="s">
-        <v>200</v>
+      <c r="AH60">
+        <v>1</v>
+      </c>
+      <c r="AI60">
+        <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:34">
+    <row r="61" spans="1:35">
       <c r="A61">
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C61">
         <v>301007</v>
       </c>
       <c r="D61" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E61">
         <v>0.1</v>
@@ -6010,7 +7072,7 @@
         <v>47850.85</v>
       </c>
       <c r="J61" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="K61">
         <v>5</v>
@@ -6051,8 +7113,23 @@
       <c r="W61">
         <v>-0.28</v>
       </c>
+      <c r="X61">
+        <v>-1.97</v>
+      </c>
+      <c r="Y61">
+        <v>40.19</v>
+      </c>
+      <c r="Z61">
+        <v>4.17</v>
+      </c>
       <c r="AC61" t="s">
-        <v>197</v>
+        <v>198</v>
+      </c>
+      <c r="AD61">
+        <v>0</v>
+      </c>
+      <c r="AE61">
+        <v>0</v>
       </c>
       <c r="AF61">
         <v>0</v>
@@ -6060,22 +7137,25 @@
       <c r="AG61">
         <v>1.658545255661011</v>
       </c>
-      <c r="AH61" t="s">
-        <v>199</v>
+      <c r="AH61">
+        <v>0</v>
+      </c>
+      <c r="AI61">
+        <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:34">
+    <row r="62" spans="1:35">
       <c r="A62">
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C62">
         <v>301038</v>
       </c>
       <c r="D62" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E62">
         <v>-9.789999999999999</v>
@@ -6093,7 +7173,7 @@
         <v>80966.32000000001</v>
       </c>
       <c r="J62" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="K62">
         <v>3</v>
@@ -6134,8 +7214,23 @@
       <c r="W62">
         <v>0.23</v>
       </c>
+      <c r="X62">
+        <v>3.1</v>
+      </c>
+      <c r="Y62">
+        <v>33.28</v>
+      </c>
+      <c r="Z62">
+        <v>8.51</v>
+      </c>
       <c r="AC62" t="s">
-        <v>198</v>
+        <v>199</v>
+      </c>
+      <c r="AD62">
+        <v>0</v>
+      </c>
+      <c r="AE62">
+        <v>1</v>
       </c>
       <c r="AF62">
         <v>0</v>
@@ -6143,22 +7238,25 @@
       <c r="AG62">
         <v>4.544556617736816</v>
       </c>
-      <c r="AH62" t="s">
-        <v>199</v>
+      <c r="AH62">
+        <v>0</v>
+      </c>
+      <c r="AI62">
+        <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:34">
+    <row r="63" spans="1:35">
       <c r="A63">
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C63">
         <v>301095</v>
       </c>
       <c r="D63" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E63">
         <v>0.5</v>
@@ -6176,7 +7274,7 @@
         <v>64809.25</v>
       </c>
       <c r="J63" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="K63">
         <v>2</v>
@@ -6217,8 +7315,23 @@
       <c r="W63">
         <v>-0.65</v>
       </c>
+      <c r="X63">
+        <v>-0.1</v>
+      </c>
+      <c r="Y63">
+        <v>64.64</v>
+      </c>
+      <c r="Z63">
+        <v>2.9</v>
+      </c>
       <c r="AC63" t="s">
-        <v>197</v>
+        <v>198</v>
+      </c>
+      <c r="AD63">
+        <v>0</v>
+      </c>
+      <c r="AE63">
+        <v>0</v>
       </c>
       <c r="AF63">
         <v>0</v>
@@ -6226,22 +7339,25 @@
       <c r="AG63">
         <v>7.153612613677979</v>
       </c>
-      <c r="AH63" t="s">
-        <v>199</v>
+      <c r="AH63">
+        <v>0</v>
+      </c>
+      <c r="AI63">
+        <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:34">
+    <row r="64" spans="1:35">
       <c r="A64">
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C64">
         <v>301132</v>
       </c>
       <c r="D64" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E64">
         <v>-3.18</v>
@@ -6259,7 +7375,7 @@
         <v>46497.15</v>
       </c>
       <c r="J64" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="K64">
         <v>4</v>
@@ -6300,8 +7416,23 @@
       <c r="W64">
         <v>-0.98</v>
       </c>
+      <c r="X64">
+        <v>-2.35</v>
+      </c>
+      <c r="Y64">
+        <v>39.05</v>
+      </c>
+      <c r="Z64">
+        <v>0.9</v>
+      </c>
       <c r="AC64" t="s">
-        <v>197</v>
+        <v>198</v>
+      </c>
+      <c r="AD64">
+        <v>0</v>
+      </c>
+      <c r="AE64">
+        <v>0</v>
       </c>
       <c r="AF64">
         <v>0</v>
@@ -6309,22 +7440,25 @@
       <c r="AG64">
         <v>1.939653873443604</v>
       </c>
-      <c r="AH64" t="s">
-        <v>199</v>
+      <c r="AH64">
+        <v>0</v>
+      </c>
+      <c r="AI64">
+        <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:34">
+    <row r="65" spans="1:35">
       <c r="A65">
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C65">
         <v>301150</v>
       </c>
       <c r="D65" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E65">
         <v>11.85</v>
@@ -6342,7 +7476,7 @@
         <v>78492.25</v>
       </c>
       <c r="J65" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="K65">
         <v>5</v>
@@ -6383,8 +7517,23 @@
       <c r="W65">
         <v>0.57</v>
       </c>
+      <c r="X65">
+        <v>-1.93</v>
+      </c>
+      <c r="Y65">
+        <v>29.51</v>
+      </c>
+      <c r="Z65">
+        <v>3.18</v>
+      </c>
       <c r="AC65" t="s">
-        <v>197</v>
+        <v>198</v>
+      </c>
+      <c r="AD65">
+        <v>0</v>
+      </c>
+      <c r="AE65">
+        <v>0</v>
       </c>
       <c r="AF65">
         <v>0</v>
@@ -6392,22 +7541,25 @@
       <c r="AG65">
         <v>1.936637878417969</v>
       </c>
-      <c r="AH65" t="s">
-        <v>199</v>
+      <c r="AH65">
+        <v>0</v>
+      </c>
+      <c r="AI65">
+        <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:34">
+    <row r="66" spans="1:35">
       <c r="A66">
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C66">
         <v>301151</v>
       </c>
       <c r="D66" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E66">
         <v>-3.63</v>
@@ -6425,7 +7577,7 @@
         <v>31558.03</v>
       </c>
       <c r="J66" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="K66">
         <v>7</v>
@@ -6466,8 +7618,23 @@
       <c r="W66">
         <v>0.6</v>
       </c>
+      <c r="X66">
+        <v>-5.23</v>
+      </c>
+      <c r="Y66">
+        <v>22.73</v>
+      </c>
+      <c r="Z66">
+        <v>-1.6</v>
+      </c>
       <c r="AC66" t="s">
-        <v>197</v>
+        <v>198</v>
+      </c>
+      <c r="AD66">
+        <v>0</v>
+      </c>
+      <c r="AE66">
+        <v>0</v>
       </c>
       <c r="AF66">
         <v>1</v>
@@ -6475,22 +7642,25 @@
       <c r="AG66">
         <v>6.449278354644775</v>
       </c>
-      <c r="AH66" t="s">
-        <v>199</v>
+      <c r="AH66">
+        <v>0</v>
+      </c>
+      <c r="AI66">
+        <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:34">
+    <row r="67" spans="1:35">
       <c r="A67">
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C67">
         <v>301183</v>
       </c>
       <c r="D67" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E67">
         <v>6.59</v>
@@ -6508,7 +7678,7 @@
         <v>116437.18</v>
       </c>
       <c r="J67" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="K67">
         <v>12</v>
@@ -6549,8 +7719,23 @@
       <c r="W67">
         <v>3.1</v>
       </c>
+      <c r="X67">
+        <v>-6.56</v>
+      </c>
+      <c r="Y67">
+        <v>68.66</v>
+      </c>
+      <c r="Z67">
+        <v>-3.15</v>
+      </c>
       <c r="AC67" t="s">
-        <v>198</v>
+        <v>199</v>
+      </c>
+      <c r="AD67">
+        <v>0</v>
+      </c>
+      <c r="AE67">
+        <v>0</v>
       </c>
       <c r="AF67">
         <v>1</v>
@@ -6558,22 +7743,25 @@
       <c r="AG67">
         <v>6.35045337677002</v>
       </c>
-      <c r="AH67" t="s">
-        <v>200</v>
+      <c r="AH67">
+        <v>1</v>
+      </c>
+      <c r="AI67">
+        <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:34">
+    <row r="68" spans="1:35">
       <c r="A68">
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C68">
         <v>301200</v>
       </c>
       <c r="D68" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E68">
         <v>9.050000000000001</v>
@@ -6591,7 +7779,7 @@
         <v>109375.31</v>
       </c>
       <c r="J68" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="K68">
         <v>6</v>
@@ -6632,8 +7820,23 @@
       <c r="W68">
         <v>1.56</v>
       </c>
+      <c r="X68">
+        <v>-4.86</v>
+      </c>
+      <c r="Y68">
+        <v>78.88</v>
+      </c>
+      <c r="Z68">
+        <v>2.44</v>
+      </c>
       <c r="AC68" t="s">
-        <v>197</v>
+        <v>198</v>
+      </c>
+      <c r="AD68">
+        <v>0</v>
+      </c>
+      <c r="AE68">
+        <v>0</v>
       </c>
       <c r="AF68">
         <v>0</v>
@@ -6641,22 +7844,25 @@
       <c r="AG68">
         <v>2.312794923782349</v>
       </c>
-      <c r="AH68" t="s">
-        <v>199</v>
+      <c r="AH68">
+        <v>0</v>
+      </c>
+      <c r="AI68">
+        <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:34">
+    <row r="69" spans="1:35">
       <c r="A69">
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C69">
         <v>301217</v>
       </c>
       <c r="D69" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E69">
         <v>-2.07</v>
@@ -6674,7 +7880,7 @@
         <v>191734.82</v>
       </c>
       <c r="J69" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="K69">
         <v>19</v>
@@ -6715,8 +7921,23 @@
       <c r="W69">
         <v>0.02</v>
       </c>
+      <c r="X69">
+        <v>-3.5</v>
+      </c>
+      <c r="Y69">
+        <v>27.09</v>
+      </c>
+      <c r="Z69">
+        <v>4.11</v>
+      </c>
       <c r="AC69" t="s">
-        <v>197</v>
+        <v>198</v>
+      </c>
+      <c r="AD69">
+        <v>0</v>
+      </c>
+      <c r="AE69">
+        <v>0</v>
       </c>
       <c r="AF69">
         <v>0</v>
@@ -6724,22 +7945,25 @@
       <c r="AG69">
         <v>6.126917362213135</v>
       </c>
-      <c r="AH69" t="s">
-        <v>199</v>
+      <c r="AH69">
+        <v>0</v>
+      </c>
+      <c r="AI69">
+        <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:34">
+    <row r="70" spans="1:35">
       <c r="A70">
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C70">
         <v>301235</v>
       </c>
       <c r="D70" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E70">
         <v>3.22</v>
@@ -6757,7 +7981,7 @@
         <v>73410.89999999999</v>
       </c>
       <c r="J70" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="K70">
         <v>1</v>
@@ -6798,8 +8022,23 @@
       <c r="W70">
         <v>0.4</v>
       </c>
+      <c r="X70">
+        <v>-5.97</v>
+      </c>
+      <c r="Y70">
+        <v>33.7</v>
+      </c>
+      <c r="Z70">
+        <v>-1.63</v>
+      </c>
       <c r="AC70" t="s">
-        <v>198</v>
+        <v>199</v>
+      </c>
+      <c r="AD70">
+        <v>0</v>
+      </c>
+      <c r="AE70">
+        <v>0</v>
       </c>
       <c r="AF70">
         <v>0</v>
@@ -6807,22 +8046,25 @@
       <c r="AG70">
         <v>8.786869049072266</v>
       </c>
-      <c r="AH70" t="s">
-        <v>199</v>
+      <c r="AH70">
+        <v>0</v>
+      </c>
+      <c r="AI70">
+        <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:34">
+    <row r="71" spans="1:35">
       <c r="A71">
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C71">
         <v>301285</v>
       </c>
       <c r="D71" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E71">
         <v>-2.61</v>
@@ -6840,7 +8082,7 @@
         <v>49182.73</v>
       </c>
       <c r="J71" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="K71">
         <v>4</v>
@@ -6881,8 +8123,23 @@
       <c r="W71">
         <v>-0.15</v>
       </c>
+      <c r="X71">
+        <v>3.63</v>
+      </c>
+      <c r="Y71">
+        <v>42.71</v>
+      </c>
+      <c r="Z71">
+        <v>5.12</v>
+      </c>
       <c r="AC71" t="s">
-        <v>197</v>
+        <v>198</v>
+      </c>
+      <c r="AD71">
+        <v>0</v>
+      </c>
+      <c r="AE71">
+        <v>0</v>
       </c>
       <c r="AF71">
         <v>0</v>
@@ -6890,22 +8147,25 @@
       <c r="AG71">
         <v>4.570229530334473</v>
       </c>
-      <c r="AH71" t="s">
-        <v>199</v>
+      <c r="AH71">
+        <v>0</v>
+      </c>
+      <c r="AI71">
+        <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:34">
+    <row r="72" spans="1:35">
       <c r="A72">
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C72">
         <v>301306</v>
       </c>
       <c r="D72" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E72">
         <v>-4.14</v>
@@ -6923,7 +8183,7 @@
         <v>51165.96</v>
       </c>
       <c r="J72" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="K72">
         <v>7</v>
@@ -6964,8 +8224,23 @@
       <c r="W72">
         <v>-0.4</v>
       </c>
+      <c r="X72">
+        <v>1.61</v>
+      </c>
+      <c r="Y72">
+        <v>65.23999999999999</v>
+      </c>
+      <c r="Z72">
+        <v>5.04</v>
+      </c>
       <c r="AC72" t="s">
-        <v>197</v>
+        <v>198</v>
+      </c>
+      <c r="AD72">
+        <v>0</v>
+      </c>
+      <c r="AE72">
+        <v>0</v>
       </c>
       <c r="AF72">
         <v>0</v>
@@ -6973,22 +8248,25 @@
       <c r="AG72">
         <v>1.931422114372253</v>
       </c>
-      <c r="AH72" t="s">
-        <v>199</v>
+      <c r="AH72">
+        <v>0</v>
+      </c>
+      <c r="AI72">
+        <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:34">
+    <row r="73" spans="1:35">
       <c r="A73">
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C73">
         <v>301345</v>
       </c>
       <c r="D73" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E73">
         <v>-2.11</v>
@@ -7006,7 +8284,7 @@
         <v>52682.86</v>
       </c>
       <c r="J73" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="K73">
         <v>6</v>
@@ -7047,8 +8325,23 @@
       <c r="W73">
         <v>-0.12</v>
       </c>
+      <c r="X73">
+        <v>0.11</v>
+      </c>
+      <c r="Y73">
+        <v>162.5</v>
+      </c>
+      <c r="Z73">
+        <v>3.28</v>
+      </c>
       <c r="AC73" t="s">
-        <v>197</v>
+        <v>198</v>
+      </c>
+      <c r="AD73">
+        <v>0</v>
+      </c>
+      <c r="AE73">
+        <v>0</v>
       </c>
       <c r="AF73">
         <v>1</v>
@@ -7056,22 +8349,25 @@
       <c r="AG73">
         <v>9.188579559326172</v>
       </c>
-      <c r="AH73" t="s">
-        <v>199</v>
+      <c r="AH73">
+        <v>0</v>
+      </c>
+      <c r="AI73">
+        <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:34">
+    <row r="74" spans="1:35">
       <c r="A74">
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C74">
         <v>301357</v>
       </c>
       <c r="D74" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E74">
         <v>16.4</v>
@@ -7089,7 +8385,7 @@
         <v>140073.56</v>
       </c>
       <c r="J74" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="K74">
         <v>3</v>
@@ -7130,8 +8426,23 @@
       <c r="W74">
         <v>2.11</v>
       </c>
+      <c r="X74">
+        <v>-7.09</v>
+      </c>
+      <c r="Y74">
+        <v>108</v>
+      </c>
+      <c r="Z74">
+        <v>5.64</v>
+      </c>
       <c r="AC74" t="s">
-        <v>198</v>
+        <v>199</v>
+      </c>
+      <c r="AD74">
+        <v>0</v>
+      </c>
+      <c r="AE74">
+        <v>0</v>
       </c>
       <c r="AF74">
         <v>0</v>
@@ -7139,22 +8450,25 @@
       <c r="AG74">
         <v>0.3244417011737823</v>
       </c>
-      <c r="AH74" t="s">
-        <v>199</v>
+      <c r="AH74">
+        <v>0</v>
+      </c>
+      <c r="AI74">
+        <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:34">
+    <row r="75" spans="1:35">
       <c r="A75">
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C75">
         <v>301372</v>
       </c>
       <c r="D75" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E75">
         <v>1.25</v>
@@ -7172,7 +8486,7 @@
         <v>29916.37</v>
       </c>
       <c r="J75" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="K75">
         <v>1</v>
@@ -7213,8 +8527,23 @@
       <c r="W75">
         <v>1.03</v>
       </c>
+      <c r="X75">
+        <v>-9.539999999999999</v>
+      </c>
+      <c r="Y75">
+        <v>29.49</v>
+      </c>
+      <c r="Z75">
+        <v>-1.96</v>
+      </c>
       <c r="AC75" t="s">
-        <v>198</v>
+        <v>199</v>
+      </c>
+      <c r="AD75">
+        <v>0</v>
+      </c>
+      <c r="AE75">
+        <v>0</v>
       </c>
       <c r="AF75">
         <v>0</v>
@@ -7222,22 +8551,25 @@
       <c r="AG75">
         <v>8.220273971557617</v>
       </c>
-      <c r="AH75" t="s">
-        <v>199</v>
+      <c r="AH75">
+        <v>0</v>
+      </c>
+      <c r="AI75">
+        <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:34">
+    <row r="76" spans="1:35">
       <c r="A76">
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C76">
         <v>301377</v>
       </c>
       <c r="D76" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E76">
         <v>-2.32</v>
@@ -7255,7 +8587,7 @@
         <v>70090.89</v>
       </c>
       <c r="J76" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="K76">
         <v>13</v>
@@ -7296,8 +8628,23 @@
       <c r="W76">
         <v>-0.74</v>
       </c>
+      <c r="X76">
+        <v>-2.11</v>
+      </c>
+      <c r="Y76">
+        <v>53.31</v>
+      </c>
+      <c r="Z76">
+        <v>2.11</v>
+      </c>
       <c r="AC76" t="s">
-        <v>197</v>
+        <v>198</v>
+      </c>
+      <c r="AD76">
+        <v>0</v>
+      </c>
+      <c r="AE76">
+        <v>0</v>
       </c>
       <c r="AF76">
         <v>0</v>
@@ -7305,22 +8652,25 @@
       <c r="AG76">
         <v>1.198344230651855</v>
       </c>
-      <c r="AH76" t="s">
-        <v>199</v>
+      <c r="AH76">
+        <v>0</v>
+      </c>
+      <c r="AI76">
+        <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:34">
+    <row r="77" spans="1:35">
       <c r="A77">
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C77">
         <v>301389</v>
       </c>
       <c r="D77" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E77">
         <v>8.880000000000001</v>
@@ -7338,7 +8688,7 @@
         <v>111314.36</v>
       </c>
       <c r="J77" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="K77">
         <v>18</v>
@@ -7379,8 +8729,23 @@
       <c r="W77">
         <v>2.07</v>
       </c>
+      <c r="X77">
+        <v>12.06</v>
+      </c>
+      <c r="Y77">
+        <v>45.88</v>
+      </c>
+      <c r="Z77">
+        <v>19.54</v>
+      </c>
       <c r="AC77" t="s">
-        <v>198</v>
+        <v>199</v>
+      </c>
+      <c r="AD77">
+        <v>0</v>
+      </c>
+      <c r="AE77">
+        <v>1</v>
       </c>
       <c r="AF77">
         <v>0</v>
@@ -7388,22 +8753,25 @@
       <c r="AG77">
         <v>-1.582558989524841</v>
       </c>
-      <c r="AH77" t="s">
-        <v>199</v>
+      <c r="AH77">
+        <v>0</v>
+      </c>
+      <c r="AI77">
+        <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:34">
+    <row r="78" spans="1:35">
       <c r="A78">
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C78">
         <v>301392</v>
       </c>
       <c r="D78" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E78">
         <v>-4.35</v>
@@ -7421,7 +8789,7 @@
         <v>45867.12</v>
       </c>
       <c r="J78" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="K78">
         <v>3</v>
@@ -7462,8 +8830,23 @@
       <c r="W78">
         <v>-0.54</v>
       </c>
+      <c r="X78">
+        <v>-4.39</v>
+      </c>
+      <c r="Y78">
+        <v>159.98</v>
+      </c>
+      <c r="Z78">
+        <v>0.58</v>
+      </c>
       <c r="AC78" t="s">
-        <v>197</v>
+        <v>198</v>
+      </c>
+      <c r="AD78">
+        <v>0</v>
+      </c>
+      <c r="AE78">
+        <v>0</v>
       </c>
       <c r="AF78">
         <v>0</v>
@@ -7471,22 +8854,25 @@
       <c r="AG78">
         <v>4.759600162506104</v>
       </c>
-      <c r="AH78" t="s">
-        <v>199</v>
+      <c r="AH78">
+        <v>0</v>
+      </c>
+      <c r="AI78">
+        <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:34">
+    <row r="79" spans="1:35">
       <c r="A79">
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C79">
         <v>301393</v>
       </c>
       <c r="D79" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E79">
         <v>4.78</v>
@@ -7504,7 +8890,7 @@
         <v>42197.95</v>
       </c>
       <c r="J79" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="K79">
         <v>1</v>
@@ -7545,8 +8931,23 @@
       <c r="W79">
         <v>0.3</v>
       </c>
+      <c r="X79">
+        <v>-4.28</v>
+      </c>
+      <c r="Y79">
+        <v>63.8</v>
+      </c>
+      <c r="Z79">
+        <v>3.5</v>
+      </c>
       <c r="AC79" t="s">
-        <v>198</v>
+        <v>199</v>
+      </c>
+      <c r="AD79">
+        <v>0</v>
+      </c>
+      <c r="AE79">
+        <v>0</v>
       </c>
       <c r="AF79">
         <v>0</v>
@@ -7554,22 +8955,25 @@
       <c r="AG79">
         <v>2.339166641235352</v>
       </c>
-      <c r="AH79" t="s">
-        <v>199</v>
+      <c r="AH79">
+        <v>0</v>
+      </c>
+      <c r="AI79">
+        <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:34">
+    <row r="80" spans="1:35">
       <c r="A80">
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C80">
         <v>301421</v>
       </c>
       <c r="D80" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E80">
         <v>-4.06</v>
@@ -7587,7 +8991,7 @@
         <v>55259.97</v>
       </c>
       <c r="J80" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="K80">
         <v>29</v>
@@ -7628,8 +9032,23 @@
       <c r="W80">
         <v>-1.47</v>
       </c>
+      <c r="X80">
+        <v>-1.56</v>
+      </c>
+      <c r="Y80">
+        <v>75.8</v>
+      </c>
+      <c r="Z80">
+        <v>1.17</v>
+      </c>
       <c r="AC80" t="s">
-        <v>197</v>
+        <v>198</v>
+      </c>
+      <c r="AD80">
+        <v>0</v>
+      </c>
+      <c r="AE80">
+        <v>0</v>
       </c>
       <c r="AF80">
         <v>0</v>
@@ -7637,22 +9056,25 @@
       <c r="AG80">
         <v>5.242759227752686</v>
       </c>
-      <c r="AH80" t="s">
-        <v>199</v>
+      <c r="AH80">
+        <v>0</v>
+      </c>
+      <c r="AI80">
+        <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:34">
+    <row r="81" spans="1:35">
       <c r="A81">
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C81">
         <v>301489</v>
       </c>
       <c r="D81" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E81">
         <v>20</v>
@@ -7670,7 +9092,7 @@
         <v>66426.95</v>
       </c>
       <c r="J81" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="K81">
         <v>1</v>
@@ -7711,8 +9133,23 @@
       <c r="W81">
         <v>1.4</v>
       </c>
+      <c r="X81">
+        <v>5.17</v>
+      </c>
+      <c r="Y81">
+        <v>112.97</v>
+      </c>
+      <c r="Z81">
+        <v>8.98</v>
+      </c>
       <c r="AC81" t="s">
-        <v>198</v>
+        <v>199</v>
+      </c>
+      <c r="AD81">
+        <v>1</v>
+      </c>
+      <c r="AE81">
+        <v>1</v>
       </c>
       <c r="AF81">
         <v>1</v>
@@ -7720,22 +9157,25 @@
       <c r="AG81">
         <v>14.74740695953369</v>
       </c>
-      <c r="AH81" t="s">
-        <v>200</v>
+      <c r="AH81">
+        <v>1</v>
+      </c>
+      <c r="AI81">
+        <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:34">
+    <row r="82" spans="1:35">
       <c r="A82">
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C82">
         <v>301511</v>
       </c>
       <c r="D82" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E82">
         <v>2.63</v>
@@ -7753,7 +9193,7 @@
         <v>289958.78</v>
       </c>
       <c r="J82" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="K82">
         <v>28</v>
@@ -7794,8 +9234,23 @@
       <c r="W82">
         <v>1.2</v>
       </c>
+      <c r="X82">
+        <v>-0.5</v>
+      </c>
+      <c r="Y82">
+        <v>38.61</v>
+      </c>
+      <c r="Z82">
+        <v>6.28</v>
+      </c>
       <c r="AC82" t="s">
-        <v>197</v>
+        <v>198</v>
+      </c>
+      <c r="AD82">
+        <v>0</v>
+      </c>
+      <c r="AE82">
+        <v>0</v>
       </c>
       <c r="AF82">
         <v>0</v>
@@ -7803,22 +9258,25 @@
       <c r="AG82">
         <v>5.711447238922119</v>
       </c>
-      <c r="AH82" t="s">
-        <v>199</v>
+      <c r="AH82">
+        <v>0</v>
+      </c>
+      <c r="AI82">
+        <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:34">
+    <row r="83" spans="1:35">
       <c r="A83">
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C83">
         <v>301526</v>
       </c>
       <c r="D83" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E83">
         <v>-0.41</v>
@@ -7836,7 +9294,7 @@
         <v>66752.10000000001</v>
       </c>
       <c r="J83" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="K83">
         <v>18</v>
@@ -7877,8 +9335,23 @@
       <c r="W83">
         <v>0.29</v>
       </c>
+      <c r="X83">
+        <v>-1.84</v>
+      </c>
+      <c r="Y83">
+        <v>5</v>
+      </c>
+      <c r="Z83">
+        <v>2.88</v>
+      </c>
       <c r="AC83" t="s">
-        <v>197</v>
+        <v>198</v>
+      </c>
+      <c r="AD83">
+        <v>0</v>
+      </c>
+      <c r="AE83">
+        <v>0</v>
       </c>
       <c r="AF83">
         <v>0</v>
@@ -7886,22 +9359,25 @@
       <c r="AG83">
         <v>4.000024318695068</v>
       </c>
-      <c r="AH83" t="s">
-        <v>199</v>
+      <c r="AH83">
+        <v>0</v>
+      </c>
+      <c r="AI83">
+        <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:34">
+    <row r="84" spans="1:35">
       <c r="A84">
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C84">
         <v>301529</v>
       </c>
       <c r="D84" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E84">
         <v>6.43</v>
@@ -7919,7 +9395,7 @@
         <v>35962.46</v>
       </c>
       <c r="J84" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="K84">
         <v>9</v>
@@ -7960,8 +9436,23 @@
       <c r="W84">
         <v>0.06</v>
       </c>
+      <c r="X84">
+        <v>0.9</v>
+      </c>
+      <c r="Y84">
+        <v>61.8</v>
+      </c>
+      <c r="Z84">
+        <v>1.2</v>
+      </c>
       <c r="AC84" t="s">
-        <v>197</v>
+        <v>198</v>
+      </c>
+      <c r="AD84">
+        <v>0</v>
+      </c>
+      <c r="AE84">
+        <v>0</v>
       </c>
       <c r="AF84">
         <v>1</v>
@@ -7969,22 +9460,25 @@
       <c r="AG84">
         <v>2.717536211013794</v>
       </c>
-      <c r="AH84" t="s">
-        <v>199</v>
+      <c r="AH84">
+        <v>0</v>
+      </c>
+      <c r="AI84">
+        <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:34">
+    <row r="85" spans="1:35">
       <c r="A85">
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C85">
         <v>301580</v>
       </c>
       <c r="D85" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E85">
         <v>-2.29</v>
@@ -8002,7 +9496,7 @@
         <v>27575.02</v>
       </c>
       <c r="J85" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="K85">
         <v>4</v>
@@ -8043,8 +9537,23 @@
       <c r="W85">
         <v>-0.42</v>
       </c>
+      <c r="X85">
+        <v>-2.54</v>
+      </c>
+      <c r="Y85">
+        <v>50.5</v>
+      </c>
+      <c r="Z85">
+        <v>1.34</v>
+      </c>
       <c r="AC85" t="s">
-        <v>197</v>
+        <v>198</v>
+      </c>
+      <c r="AD85">
+        <v>0</v>
+      </c>
+      <c r="AE85">
+        <v>0</v>
       </c>
       <c r="AF85">
         <v>0</v>
@@ -8052,22 +9561,25 @@
       <c r="AG85">
         <v>3.359677314758301</v>
       </c>
-      <c r="AH85" t="s">
-        <v>199</v>
+      <c r="AH85">
+        <v>0</v>
+      </c>
+      <c r="AI85">
+        <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:34">
+    <row r="86" spans="1:35">
       <c r="A86">
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C86">
         <v>301626</v>
       </c>
       <c r="D86" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E86">
         <v>0.12</v>
@@ -8085,7 +9597,7 @@
         <v>33638.36</v>
       </c>
       <c r="J86" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="K86">
         <v>8</v>
@@ -8126,8 +9638,23 @@
       <c r="W86">
         <v>-0.15</v>
       </c>
+      <c r="X86">
+        <v>2.9</v>
+      </c>
+      <c r="Y86">
+        <v>146.81</v>
+      </c>
+      <c r="Z86">
+        <v>4.55</v>
+      </c>
       <c r="AC86" t="s">
-        <v>197</v>
+        <v>198</v>
+      </c>
+      <c r="AD86">
+        <v>0</v>
+      </c>
+      <c r="AE86">
+        <v>0</v>
       </c>
       <c r="AF86">
         <v>1</v>
@@ -8135,22 +9662,25 @@
       <c r="AG86">
         <v>2.301664352416992</v>
       </c>
-      <c r="AH86" t="s">
-        <v>199</v>
+      <c r="AH86">
+        <v>0</v>
+      </c>
+      <c r="AI86">
+        <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:34">
+    <row r="87" spans="1:35">
       <c r="A87">
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C87">
         <v>688020</v>
       </c>
       <c r="D87" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E87">
         <v>1.6</v>
@@ -8168,7 +9698,7 @@
         <v>72154.24000000001</v>
       </c>
       <c r="J87" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="K87">
         <v>2</v>
@@ -8209,8 +9739,23 @@
       <c r="W87">
         <v>-0.09</v>
       </c>
+      <c r="X87">
+        <v>-5.23</v>
+      </c>
+      <c r="Y87">
+        <v>56.5</v>
+      </c>
+      <c r="Z87">
+        <v>0.02</v>
+      </c>
       <c r="AC87" t="s">
-        <v>197</v>
+        <v>198</v>
+      </c>
+      <c r="AD87">
+        <v>0</v>
+      </c>
+      <c r="AE87">
+        <v>0</v>
       </c>
       <c r="AF87">
         <v>0</v>
@@ -8218,22 +9763,25 @@
       <c r="AG87">
         <v>1.177650332450867</v>
       </c>
-      <c r="AH87" t="s">
-        <v>199</v>
+      <c r="AH87">
+        <v>0</v>
+      </c>
+      <c r="AI87">
+        <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:34">
+    <row r="88" spans="1:35">
       <c r="A88">
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C88">
         <v>688062</v>
       </c>
       <c r="D88" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E88">
         <v>3.88</v>
@@ -8251,7 +9799,7 @@
         <v>80621.92</v>
       </c>
       <c r="J88" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="K88">
         <v>3</v>
@@ -8292,8 +9840,23 @@
       <c r="W88">
         <v>-0.65</v>
       </c>
+      <c r="X88">
+        <v>6.23</v>
+      </c>
+      <c r="Y88">
+        <v>38.14</v>
+      </c>
+      <c r="Z88">
+        <v>10.52</v>
+      </c>
       <c r="AC88" t="s">
-        <v>197</v>
+        <v>198</v>
+      </c>
+      <c r="AD88">
+        <v>0</v>
+      </c>
+      <c r="AE88">
+        <v>1</v>
       </c>
       <c r="AF88">
         <v>0</v>
@@ -8301,22 +9864,25 @@
       <c r="AG88">
         <v>1.886426448822021</v>
       </c>
-      <c r="AH88" t="s">
-        <v>199</v>
+      <c r="AH88">
+        <v>0</v>
+      </c>
+      <c r="AI88">
+        <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:34">
+    <row r="89" spans="1:35">
       <c r="A89">
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C89">
         <v>688110</v>
       </c>
       <c r="D89" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E89">
         <v>19.99</v>
@@ -8334,7 +9900,7 @@
         <v>199657.18</v>
       </c>
       <c r="J89" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="K89">
         <v>3</v>
@@ -8375,8 +9941,23 @@
       <c r="W89">
         <v>0.38</v>
       </c>
+      <c r="X89">
+        <v>-11.37</v>
+      </c>
+      <c r="Y89">
+        <v>69.89</v>
+      </c>
+      <c r="Z89">
+        <v>7.92</v>
+      </c>
       <c r="AC89" t="s">
-        <v>198</v>
+        <v>199</v>
+      </c>
+      <c r="AD89">
+        <v>1</v>
+      </c>
+      <c r="AE89">
+        <v>1</v>
       </c>
       <c r="AF89">
         <v>1</v>
@@ -8384,22 +9965,25 @@
       <c r="AG89">
         <v>4.300002098083496</v>
       </c>
-      <c r="AH89" t="s">
-        <v>200</v>
+      <c r="AH89">
+        <v>1</v>
+      </c>
+      <c r="AI89">
+        <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:34">
+    <row r="90" spans="1:35">
       <c r="A90">
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C90">
         <v>688189</v>
       </c>
       <c r="D90" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E90">
         <v>20.03</v>
@@ -8417,7 +10001,7 @@
         <v>55749.08</v>
       </c>
       <c r="J90" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="K90">
         <v>2</v>
@@ -8458,8 +10042,23 @@
       <c r="W90">
         <v>0.19</v>
       </c>
+      <c r="X90">
+        <v>2.51</v>
+      </c>
+      <c r="Y90">
+        <v>18.78</v>
+      </c>
+      <c r="Z90">
+        <v>9.57</v>
+      </c>
       <c r="AC90" t="s">
-        <v>197</v>
+        <v>198</v>
+      </c>
+      <c r="AD90">
+        <v>0</v>
+      </c>
+      <c r="AE90">
+        <v>1</v>
       </c>
       <c r="AF90">
         <v>0</v>
@@ -8467,22 +10066,25 @@
       <c r="AG90">
         <v>15.83602809906006</v>
       </c>
-      <c r="AH90" t="s">
-        <v>199</v>
+      <c r="AH90">
+        <v>0</v>
+      </c>
+      <c r="AI90">
+        <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:34">
+    <row r="91" spans="1:35">
       <c r="A91">
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C91">
         <v>688202</v>
       </c>
       <c r="D91" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E91">
         <v>0.73</v>
@@ -8500,7 +10102,7 @@
         <v>50225.63</v>
       </c>
       <c r="J91" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="K91">
         <v>18</v>
@@ -8541,8 +10143,23 @@
       <c r="W91">
         <v>-0.48</v>
       </c>
+      <c r="X91">
+        <v>-2.84</v>
+      </c>
+      <c r="Y91">
+        <v>64.8</v>
+      </c>
+      <c r="Z91">
+        <v>2.52</v>
+      </c>
       <c r="AC91" t="s">
-        <v>197</v>
+        <v>198</v>
+      </c>
+      <c r="AD91">
+        <v>0</v>
+      </c>
+      <c r="AE91">
+        <v>0</v>
       </c>
       <c r="AF91">
         <v>0</v>
@@ -8550,22 +10167,25 @@
       <c r="AG91">
         <v>3.279319763183594</v>
       </c>
-      <c r="AH91" t="s">
-        <v>199</v>
+      <c r="AH91">
+        <v>0</v>
+      </c>
+      <c r="AI91">
+        <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:34">
+    <row r="92" spans="1:35">
       <c r="A92">
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C92">
         <v>688210</v>
       </c>
       <c r="D92" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E92">
         <v>-1.25</v>
@@ -8583,7 +10203,7 @@
         <v>27252.28</v>
       </c>
       <c r="J92" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="K92">
         <v>6</v>
@@ -8624,8 +10244,23 @@
       <c r="W92">
         <v>-0.43</v>
       </c>
+      <c r="X92">
+        <v>6.47</v>
+      </c>
+      <c r="Y92">
+        <v>37.55</v>
+      </c>
+      <c r="Z92">
+        <v>10.51</v>
+      </c>
       <c r="AC92" t="s">
-        <v>197</v>
+        <v>198</v>
+      </c>
+      <c r="AD92">
+        <v>0</v>
+      </c>
+      <c r="AE92">
+        <v>1</v>
       </c>
       <c r="AF92">
         <v>0</v>
@@ -8633,22 +10268,25 @@
       <c r="AG92">
         <v>0.2693648934364319</v>
       </c>
-      <c r="AH92" t="s">
-        <v>199</v>
+      <c r="AH92">
+        <v>0</v>
+      </c>
+      <c r="AI92">
+        <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:34">
+    <row r="93" spans="1:35">
       <c r="A93">
         <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C93">
         <v>688221</v>
       </c>
       <c r="D93" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E93">
         <v>-2.93</v>
@@ -8666,7 +10304,7 @@
         <v>64642.47</v>
       </c>
       <c r="J93" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="K93">
         <v>4</v>
@@ -8707,8 +10345,23 @@
       <c r="W93">
         <v>-0.9399999999999999</v>
       </c>
+      <c r="X93">
+        <v>0.28</v>
+      </c>
+      <c r="Y93">
+        <v>23.3</v>
+      </c>
+      <c r="Z93">
+        <v>8.02</v>
+      </c>
       <c r="AC93" t="s">
-        <v>197</v>
+        <v>198</v>
+      </c>
+      <c r="AD93">
+        <v>0</v>
+      </c>
+      <c r="AE93">
+        <v>1</v>
       </c>
       <c r="AF93">
         <v>0</v>
@@ -8716,22 +10369,25 @@
       <c r="AG93">
         <v>6.270198345184326</v>
       </c>
-      <c r="AH93" t="s">
-        <v>199</v>
+      <c r="AH93">
+        <v>0</v>
+      </c>
+      <c r="AI93">
+        <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:34">
+    <row r="94" spans="1:35">
       <c r="A94">
         <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C94">
         <v>688222</v>
       </c>
       <c r="D94" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E94">
         <v>-1.18</v>
@@ -8749,7 +10405,7 @@
         <v>70939.32000000001</v>
       </c>
       <c r="J94" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="K94">
         <v>10</v>
@@ -8790,8 +10446,23 @@
       <c r="W94">
         <v>-0.55</v>
       </c>
+      <c r="X94">
+        <v>1.66</v>
+      </c>
+      <c r="Y94">
+        <v>25.3</v>
+      </c>
+      <c r="Z94">
+        <v>8.26</v>
+      </c>
       <c r="AC94" t="s">
-        <v>197</v>
+        <v>198</v>
+      </c>
+      <c r="AD94">
+        <v>0</v>
+      </c>
+      <c r="AE94">
+        <v>1</v>
       </c>
       <c r="AF94">
         <v>0</v>
@@ -8799,22 +10470,25 @@
       <c r="AG94">
         <v>1.108945369720459</v>
       </c>
-      <c r="AH94" t="s">
-        <v>199</v>
+      <c r="AH94">
+        <v>0</v>
+      </c>
+      <c r="AI94">
+        <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:34">
+    <row r="95" spans="1:35">
       <c r="A95">
         <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C95">
         <v>688258</v>
       </c>
       <c r="D95" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E95">
         <v>1.5</v>
@@ -8832,7 +10506,7 @@
         <v>60635.33</v>
       </c>
       <c r="J95" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="K95">
         <v>2</v>
@@ -8873,8 +10547,23 @@
       <c r="W95">
         <v>-0.36</v>
       </c>
+      <c r="X95">
+        <v>5.52</v>
+      </c>
+      <c r="Y95">
+        <v>69.8</v>
+      </c>
+      <c r="Z95">
+        <v>10.76</v>
+      </c>
       <c r="AC95" t="s">
-        <v>197</v>
+        <v>198</v>
+      </c>
+      <c r="AD95">
+        <v>0</v>
+      </c>
+      <c r="AE95">
+        <v>1</v>
       </c>
       <c r="AF95">
         <v>0</v>
@@ -8882,22 +10571,25 @@
       <c r="AG95">
         <v>4.758180618286133</v>
       </c>
-      <c r="AH95" t="s">
-        <v>199</v>
+      <c r="AH95">
+        <v>0</v>
+      </c>
+      <c r="AI95">
+        <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:34">
+    <row r="96" spans="1:35">
       <c r="A96">
         <v>95</v>
       </c>
       <c r="B96" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C96">
         <v>688321</v>
       </c>
       <c r="D96" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E96">
         <v>0.05</v>
@@ -8915,7 +10607,7 @@
         <v>87685.22</v>
       </c>
       <c r="J96" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="K96">
         <v>23</v>
@@ -8956,8 +10648,23 @@
       <c r="W96">
         <v>0.4</v>
       </c>
+      <c r="X96">
+        <v>0.54</v>
+      </c>
+      <c r="Y96">
+        <v>39.22</v>
+      </c>
+      <c r="Z96">
+        <v>5.52</v>
+      </c>
       <c r="AC96" t="s">
-        <v>197</v>
+        <v>198</v>
+      </c>
+      <c r="AD96">
+        <v>0</v>
+      </c>
+      <c r="AE96">
+        <v>0</v>
       </c>
       <c r="AF96">
         <v>0</v>
@@ -8965,22 +10672,25 @@
       <c r="AG96">
         <v>1.871249794960022</v>
       </c>
-      <c r="AH96" t="s">
-        <v>199</v>
+      <c r="AH96">
+        <v>0</v>
+      </c>
+      <c r="AI96">
+        <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:34">
+    <row r="97" spans="1:35">
       <c r="A97">
         <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C97">
         <v>688499</v>
       </c>
       <c r="D97" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E97">
         <v>-2.56</v>
@@ -8998,7 +10708,7 @@
         <v>73676.47</v>
       </c>
       <c r="J97" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="K97">
         <v>33</v>
@@ -9039,8 +10749,23 @@
       <c r="W97">
         <v>-1.46</v>
       </c>
+      <c r="X97">
+        <v>-3.38</v>
+      </c>
+      <c r="Y97">
+        <v>52.51</v>
+      </c>
+      <c r="Z97">
+        <v>0.02</v>
+      </c>
       <c r="AC97" t="s">
-        <v>197</v>
+        <v>198</v>
+      </c>
+      <c r="AD97">
+        <v>0</v>
+      </c>
+      <c r="AE97">
+        <v>0</v>
       </c>
       <c r="AF97">
         <v>0</v>
@@ -9048,22 +10773,25 @@
       <c r="AG97">
         <v>1.510025024414062</v>
       </c>
-      <c r="AH97" t="s">
-        <v>199</v>
+      <c r="AH97">
+        <v>0</v>
+      </c>
+      <c r="AI97">
+        <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:34">
+    <row r="98" spans="1:35">
       <c r="A98">
         <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C98">
         <v>688502</v>
       </c>
       <c r="D98" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E98">
         <v>-4.6</v>
@@ -9081,7 +10809,7 @@
         <v>55785.63</v>
       </c>
       <c r="J98" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="K98">
         <v>4</v>
@@ -9122,8 +10850,23 @@
       <c r="W98">
         <v>-1.06</v>
       </c>
+      <c r="X98">
+        <v>-1.77</v>
+      </c>
+      <c r="Y98">
+        <v>333.89</v>
+      </c>
+      <c r="Z98">
+        <v>0.51</v>
+      </c>
       <c r="AC98" t="s">
-        <v>197</v>
+        <v>198</v>
+      </c>
+      <c r="AD98">
+        <v>0</v>
+      </c>
+      <c r="AE98">
+        <v>0</v>
       </c>
       <c r="AF98">
         <v>0</v>
@@ -9131,22 +10874,25 @@
       <c r="AG98">
         <v>2.573508024215698</v>
       </c>
-      <c r="AH98" t="s">
-        <v>199</v>
+      <c r="AH98">
+        <v>0</v>
+      </c>
+      <c r="AI98">
+        <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:34">
+    <row r="99" spans="1:35">
       <c r="A99">
         <v>98</v>
       </c>
       <c r="B99" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C99">
         <v>688556</v>
       </c>
       <c r="D99" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E99">
         <v>-2.45</v>
@@ -9164,7 +10910,7 @@
         <v>49969.37</v>
       </c>
       <c r="J99" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="K99">
         <v>4</v>
@@ -9205,8 +10951,23 @@
       <c r="W99">
         <v>-0.48</v>
       </c>
+      <c r="X99">
+        <v>1.91</v>
+      </c>
+      <c r="Y99">
+        <v>11.29</v>
+      </c>
+      <c r="Z99">
+        <v>9.19</v>
+      </c>
       <c r="AC99" t="s">
-        <v>197</v>
+        <v>198</v>
+      </c>
+      <c r="AD99">
+        <v>0</v>
+      </c>
+      <c r="AE99">
+        <v>1</v>
       </c>
       <c r="AF99">
         <v>0</v>
@@ -9214,22 +10975,25 @@
       <c r="AG99">
         <v>3.245615005493164</v>
       </c>
-      <c r="AH99" t="s">
-        <v>199</v>
+      <c r="AH99">
+        <v>0</v>
+      </c>
+      <c r="AI99">
+        <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:34">
+    <row r="100" spans="1:35">
       <c r="A100">
         <v>99</v>
       </c>
       <c r="B100" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C100">
         <v>688603</v>
       </c>
       <c r="D100" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E100">
         <v>2.03</v>
@@ -9247,7 +11011,7 @@
         <v>64552.02</v>
       </c>
       <c r="J100" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="K100">
         <v>2</v>
@@ -9288,8 +11052,23 @@
       <c r="W100">
         <v>-0.87</v>
       </c>
+      <c r="X100">
+        <v>2.65</v>
+      </c>
+      <c r="Y100">
+        <v>67</v>
+      </c>
+      <c r="Z100">
+        <v>2.6</v>
+      </c>
       <c r="AC100" t="s">
-        <v>197</v>
+        <v>198</v>
+      </c>
+      <c r="AD100">
+        <v>0</v>
+      </c>
+      <c r="AE100">
+        <v>0</v>
       </c>
       <c r="AF100">
         <v>0</v>
@@ -9297,22 +11076,25 @@
       <c r="AG100">
         <v>2.770648241043091</v>
       </c>
-      <c r="AH100" t="s">
-        <v>199</v>
+      <c r="AH100">
+        <v>0</v>
+      </c>
+      <c r="AI100">
+        <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:34">
+    <row r="101" spans="1:35">
       <c r="A101">
         <v>100</v>
       </c>
       <c r="B101" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C101">
         <v>688630</v>
       </c>
       <c r="D101" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E101">
         <v>0.06</v>
@@ -9330,7 +11112,7 @@
         <v>194970.7</v>
       </c>
       <c r="J101" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="K101">
         <v>6</v>
@@ -9371,8 +11153,23 @@
       <c r="W101">
         <v>-0.76</v>
       </c>
+      <c r="X101">
+        <v>-4.3</v>
+      </c>
+      <c r="Y101">
+        <v>123.99</v>
+      </c>
+      <c r="Z101">
+        <v>0.23</v>
+      </c>
       <c r="AC101" t="s">
-        <v>197</v>
+        <v>198</v>
+      </c>
+      <c r="AD101">
+        <v>0</v>
+      </c>
+      <c r="AE101">
+        <v>0</v>
       </c>
       <c r="AF101">
         <v>0</v>
@@ -9380,22 +11177,25 @@
       <c r="AG101">
         <v>4.498867511749268</v>
       </c>
-      <c r="AH101" t="s">
-        <v>199</v>
+      <c r="AH101">
+        <v>0</v>
+      </c>
+      <c r="AI101">
+        <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:34">
+    <row r="102" spans="1:35">
       <c r="A102">
         <v>101</v>
       </c>
       <c r="B102" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C102">
         <v>688668</v>
       </c>
       <c r="D102" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E102">
         <v>10.25</v>
@@ -9413,7 +11213,7 @@
         <v>145296.54</v>
       </c>
       <c r="J102" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="K102">
         <v>11</v>
@@ -9454,8 +11254,23 @@
       <c r="W102">
         <v>-0.52</v>
       </c>
+      <c r="X102">
+        <v>-6.13</v>
+      </c>
+      <c r="Y102">
+        <v>94.38</v>
+      </c>
+      <c r="Z102">
+        <v>-1.6</v>
+      </c>
       <c r="AC102" t="s">
-        <v>197</v>
+        <v>198</v>
+      </c>
+      <c r="AD102">
+        <v>0</v>
+      </c>
+      <c r="AE102">
+        <v>0</v>
       </c>
       <c r="AF102">
         <v>1</v>
@@ -9463,22 +11278,25 @@
       <c r="AG102">
         <v>4.043474197387695</v>
       </c>
-      <c r="AH102" t="s">
-        <v>199</v>
+      <c r="AH102">
+        <v>0</v>
+      </c>
+      <c r="AI102">
+        <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:34">
+    <row r="103" spans="1:35">
       <c r="A103">
         <v>102</v>
       </c>
       <c r="B103" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C103">
         <v>688787</v>
       </c>
       <c r="D103" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E103">
         <v>-1.9</v>
@@ -9496,7 +11314,7 @@
         <v>54177.76</v>
       </c>
       <c r="J103" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="K103">
         <v>1</v>
@@ -9537,8 +11355,23 @@
       <c r="W103">
         <v>-0.11</v>
       </c>
+      <c r="X103">
+        <v>0.93</v>
+      </c>
+      <c r="Y103">
+        <v>138.8</v>
+      </c>
+      <c r="Z103">
+        <v>1.57</v>
+      </c>
       <c r="AC103" t="s">
-        <v>197</v>
+        <v>198</v>
+      </c>
+      <c r="AD103">
+        <v>0</v>
+      </c>
+      <c r="AE103">
+        <v>0</v>
       </c>
       <c r="AF103">
         <v>1</v>
@@ -9546,8 +11379,11 @@
       <c r="AG103">
         <v>3.492048978805542</v>
       </c>
-      <c r="AH103" t="s">
-        <v>199</v>
+      <c r="AH103">
+        <v>0</v>
+      </c>
+      <c r="AI103">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
